--- a/within_states/within_state_disparity_data/work_economic_within_2022_excel.xlsx
+++ b/within_states/within_state_disparity_data/work_economic_within_2022_excel.xlsx
@@ -43,7 +43,7 @@
     <t>pwd_below_poverty_z</t>
   </si>
   <si>
-    <t>pwd_below_poverty_index</t>
+    <t>EQ_index_pwd_below_poverty</t>
   </si>
   <si>
     <t>pwd_employed_pct</t>
@@ -58,7 +58,7 @@
     <t>pwd_employed_z</t>
   </si>
   <si>
-    <t>pwd_employed_index</t>
+    <t>EQ_index_pwd_employed</t>
   </si>
   <si>
     <t>pwd_unemployed_pct</t>
@@ -73,7 +73,7 @@
     <t>pwd_unemployed_z</t>
   </si>
   <si>
-    <t>pwd_unemployed_index</t>
+    <t>EQ_index_pwd_unemployed</t>
   </si>
   <si>
     <t>pwd_notlabor_pct</t>
@@ -88,7 +88,7 @@
     <t>pwd_notlabor_z</t>
   </si>
   <si>
-    <t>pwd_notlabor_index</t>
+    <t>EQ_index_pwd_notlabor</t>
   </si>
   <si>
     <t>pwd_grtoeq_16_med_individual_income</t>
@@ -103,7 +103,7 @@
     <t>pwd_grtoeq_med_individual_income_z</t>
   </si>
   <si>
-    <t>pwd_grtoeq_med_individual_income_index</t>
+    <t>EQ_index_pwd_grtoeq_med_individual_income</t>
   </si>
   <si>
     <t>pwd_fulltime_pct</t>
@@ -118,7 +118,7 @@
     <t>pwd_fulltime_z</t>
   </si>
   <si>
-    <t>pwd_fulltime_index</t>
+    <t>EQ_index_pwd_fulltime</t>
   </si>
   <si>
     <t>Work Equality Score</t>
@@ -455,7 +455,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +471,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -594,7 +636,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -607,13 +649,34 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -625,13 +688,13 @@
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -663,6 +726,13 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffd478"/>
+      <rgbColor rgb="fffefc78"/>
+      <rgbColor rgb="ffd4fb78"/>
+      <rgbColor rgb="ff72fcd5"/>
+      <rgbColor rgb="ff73fdff"/>
+      <rgbColor rgb="ff75d5ff"/>
+      <rgbColor rgb="ffb0b4ff"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -1713,7 +1783,7 @@
     <col min="7" max="7" width="21.6719" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.2422" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.8516" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.8516" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.1719" style="1" customWidth="1"/>
@@ -1799,5707 +1869,5707 @@
       <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="K2" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="L2" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="M2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="3">
+      <c r="N2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="O2" t="s" s="3">
+      <c r="O2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="P2" t="s" s="3">
+      <c r="P2" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="Q2" t="s" s="3">
+      <c r="Q2" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="3">
+      <c r="R2" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="S2" t="s" s="3">
+      <c r="S2" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="T2" t="s" s="3">
+      <c r="T2" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="U2" t="s" s="3">
+      <c r="U2" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="V2" t="s" s="3">
+      <c r="V2" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="W2" t="s" s="3">
+      <c r="W2" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="X2" t="s" s="3">
+      <c r="X2" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="Y2" t="s" s="3">
+      <c r="Y2" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="Z2" t="s" s="3">
+      <c r="Z2" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="AA2" t="s" s="3">
+      <c r="AA2" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="AB2" t="s" s="3">
+      <c r="AB2" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="AC2" t="s" s="3">
+      <c r="AC2" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="AD2" t="s" s="3">
+      <c r="AD2" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="AE2" t="s" s="3">
+      <c r="AE2" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="3">
+      <c r="AF2" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="AG2" t="s" s="3">
+      <c r="AG2" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="AH2" t="s" s="3">
+      <c r="AH2" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="AI2" t="s" s="3">
+      <c r="AI2" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="AJ2" t="s" s="3">
+      <c r="AJ2" t="s" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="14">
         <v>2022</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="15">
         <v>24.92</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="15">
         <v>10.23</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="15">
         <v>14.69</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="15">
         <v>0.0285215812203336</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="15">
         <v>50.48</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="15">
         <v>40.89</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="15">
         <v>79.56</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="15">
         <v>-38.67</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="15">
         <v>-0.159230507510781</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="15">
         <v>47.35</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="15">
         <v>5.31</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="15">
         <v>4.08</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="15">
         <v>1.23</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="15">
         <v>0.0659157130372538</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="15">
         <v>51.1</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="15">
         <v>55.42</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="15">
         <v>18.84</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="15">
         <v>36.58</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="15">
         <v>-0.177241506094287</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="15">
         <v>47.05</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="16">
         <v>29382</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="16">
         <v>43313</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="15">
         <v>-13931</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="15">
         <v>-0.0072335915114666</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="15">
         <v>49.88</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="15">
         <v>26.15</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="15">
         <v>59.14</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="15">
         <v>-32.99</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="15">
         <v>-0.0394109260017983</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="15">
         <v>49.34</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="15">
         <v>49.2</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="18">
         <v>39</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" t="s" s="19">
         <v>40</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="20">
         <v>2022</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="21">
         <v>27.35</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="21">
         <v>12.79</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="21">
         <v>14.56</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="21">
         <v>0.0775274901001584</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="21">
         <v>51.29</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="21">
         <v>33.89</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="21">
         <v>76.44</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="21">
         <v>-42.55</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="21">
         <v>-1.1898934462743</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="21">
         <v>30.17</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="21">
         <v>4.11</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="21">
         <v>3.8</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="21">
         <v>0.31</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="21">
         <v>0.951328982375127</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="21">
         <v>65.86</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="21">
         <v>63.28</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="21">
         <v>22.57</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="21">
         <v>40.71</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="21">
         <v>-1.24807764379726</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="21">
         <v>29.2</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="22">
         <v>27689</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="22">
         <v>37546</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="21">
         <v>-9857</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="21">
         <v>0.9013711474873149</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="21">
         <v>65.02</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="21">
         <v>23.02</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="21">
         <v>58.78</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AG4" s="21">
         <v>-35.76</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AH4" s="21">
         <v>-0.861274284854609</v>
       </c>
-      <c r="AI4" s="14">
+      <c r="AI4" s="21">
         <v>35.65</v>
       </c>
-      <c r="AJ4" s="14">
+      <c r="AJ4" s="21">
         <v>46.2</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" t="s" s="18">
         <v>41</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="19">
         <v>42</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="20">
         <v>2022</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="21">
         <v>20.84</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="21">
         <v>8.970000000000001</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="21">
         <v>11.87</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="21">
         <v>1.0915728353827</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="21">
         <v>68.19</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="21">
         <v>44.86</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="21">
         <v>77.69</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="21">
         <v>-32.83</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="21">
         <v>1.39207659619514</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="21">
         <v>73.2</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="21">
         <v>6.74</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="21">
         <v>4.79</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="21">
         <v>1.95</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="21">
         <v>-0.627016410792386</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="21">
         <v>39.55</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="21">
         <v>49.91</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="21">
         <v>19.69</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="21">
         <v>30.22</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="21">
         <v>1.47179428949673</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="21">
         <v>74.53</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="22">
         <v>34190</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="22">
         <v>47126</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="21">
         <v>-12936</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="21">
         <v>0.214676500610229</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="21">
         <v>53.58</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="21">
         <v>27.53</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="21">
         <v>53.18</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="21">
         <v>-25.65</v>
       </c>
-      <c r="AH5" s="14">
+      <c r="AH5" s="21">
         <v>2.13837862417136</v>
       </c>
-      <c r="AI5" s="14">
+      <c r="AI5" s="21">
         <v>85.64</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AJ5" s="21">
         <v>65.78</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C6" t="s" s="18">
         <v>43</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" t="s" s="19">
         <v>44</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="20">
         <v>2022</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="21">
         <v>22.9</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="21">
         <v>11.19</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="21">
         <v>11.71</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="21">
         <v>1.15188780015786</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="21">
         <v>69.2</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="21">
         <v>43.71</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="21">
         <v>78.36</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="21">
         <v>-34.65</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="21">
         <v>0.908621300177199</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="21">
         <v>65.14</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="21">
         <v>5.64</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="21">
         <v>3.93</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="21">
         <v>1.71</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="21">
         <v>-0.396039036182506</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="21">
         <v>43.4</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="21">
         <v>52.47</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="21">
         <v>20.3</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="21">
         <v>32.17</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="21">
         <v>0.966193691791937</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="21">
         <v>66.09999999999999</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="22">
         <v>30400</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="22">
         <v>41775</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="21">
         <v>-11375</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="21">
         <v>0.562818866240346</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="21">
         <v>59.38</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="21">
         <v>28.99</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="21">
         <v>58.72</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="21">
         <v>-29.73</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="21">
         <v>0.92783620391162</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AI6" s="21">
         <v>65.45999999999999</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AJ6" s="21">
         <v>61.45</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" t="s" s="18">
         <v>45</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" t="s" s="19">
         <v>46</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="20">
         <v>2022</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="21">
         <v>28.98</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="21">
         <v>13</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="21">
         <v>15.98</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="21">
         <v>-0.457767822279471</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="21">
         <v>42.37</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="21">
         <v>33.48</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="21">
         <v>78.18000000000001</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="21">
         <v>-44.7</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="21">
         <v>-1.76100821904275</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="21">
         <v>20.65</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="21">
         <v>4.02</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="21">
         <v>3.76</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="21">
         <v>0.26</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="21">
         <v>0.999449268752185</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="21">
         <v>66.66</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="21">
         <v>63.88</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="21">
         <v>20.82</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="21">
         <v>43.06</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="21">
         <v>-1.85739118462099</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="21">
         <v>19.04</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="22">
         <v>26726</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="22">
         <v>36813</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="21">
         <v>-10087</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="21">
         <v>0.85007534729838</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="21">
         <v>64.17</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="21">
         <v>22.09</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="21">
         <v>60.71</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="21">
         <v>-38.62</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="21">
         <v>-1.7098407853308</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AI7" s="21">
         <v>21.5</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AJ7" s="21">
         <v>39.06</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" t="s" s="18">
         <v>47</v>
       </c>
-      <c r="D8" t="s" s="12">
+      <c r="D8" t="s" s="19">
         <v>48</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="20">
         <v>2022</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="21">
         <v>22.71</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="21">
         <v>10.14</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="21">
         <v>12.57</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="21">
         <v>0.827694864491329</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="21">
         <v>63.79</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="21">
         <v>39.99</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="21">
         <v>76.84999999999999</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="21">
         <v>-36.86</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="21">
         <v>0.321568440726842</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="21">
         <v>55.36</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="21">
         <v>6.21</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="21">
         <v>4.9</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="21">
         <v>1.31</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="21">
         <v>-0.0110767451660396</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="21">
         <v>49.82</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="21">
         <v>55.42</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="21">
         <v>20.67</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="21">
         <v>34.75</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="21">
         <v>0.297245208674826</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="21">
         <v>54.95</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="22">
         <v>31838</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="22">
         <v>45749</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="21">
         <v>-13911</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="21">
         <v>-0.0027730871472114</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="21">
         <v>49.95</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="21">
         <v>24.41</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="21">
         <v>54.92</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="21">
         <v>-30.51</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AH8" s="21">
         <v>0.696408976509022</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AI8" s="21">
         <v>61.61</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AJ8" s="21">
         <v>55.91</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" t="s" s="18">
         <v>49</v>
       </c>
-      <c r="D9" t="s" s="12">
+      <c r="D9" t="s" s="19">
         <v>50</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="20">
         <v>2022</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="21">
         <v>20.62</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="21">
         <v>8.359999999999999</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="21">
         <v>12.26</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="21">
         <v>0.94455510874322</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="21">
         <v>65.73999999999999</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="21">
         <v>49.48</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="21">
         <v>82.78</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="21">
         <v>-33.3</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="21">
         <v>1.26722825052018</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="21">
         <v>71.12</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="21">
         <v>5.87</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="21">
         <v>3.46</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="21">
         <v>2.41</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="21">
         <v>-1.06972304546132</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="21">
         <v>32.17</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="21">
         <v>46.41</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="21">
         <v>16.05</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="21">
         <v>30.36</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="21">
         <v>1.43549475940511</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="21">
         <v>73.92</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="22">
         <v>32400</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="22">
         <v>47841</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="21">
         <v>-15441</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="21">
         <v>-0.344001671012733</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AD9" s="21">
         <v>44.27</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="21">
         <v>31.33</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="21">
         <v>61.09</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="21">
         <v>-29.76</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AH9" s="21">
         <v>0.918935156703827</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="21">
         <v>65.31999999999999</v>
       </c>
-      <c r="AJ9" s="14">
+      <c r="AJ9" s="21">
         <v>58.76</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="17">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="18">
         <v>51</v>
       </c>
-      <c r="D10" t="s" s="12">
+      <c r="D10" t="s" s="19">
         <v>52</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="20">
         <v>2022</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="21">
         <v>23.94</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="21">
         <v>8.24</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="21">
         <v>15.7</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="21">
         <v>-0.352216633922924</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="21">
         <v>44.13</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="21">
         <v>41.78</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="21">
         <v>81.13</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="21">
         <v>-39.35</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="21">
         <v>-0.33986215657243</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="21">
         <v>44.34</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="21">
         <v>7.23</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="21">
         <v>4.57</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="21">
         <v>2.66</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="21">
         <v>-1.31032447734661</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="21">
         <v>28.16</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="21">
         <v>52.98</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="21">
         <v>16.76</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="21">
         <v>36.22</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="21">
         <v>-0.0838998572872488</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="21">
         <v>48.6</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z10" s="22">
         <v>29645</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="22">
         <v>50547</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB10" s="21">
         <v>-20902</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AC10" s="21">
         <v>-1.56194238767261</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AD10" s="21">
         <v>23.97</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="21">
         <v>23.97</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="21">
         <v>58.46</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="21">
         <v>-34.49</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AH10" s="21">
         <v>-0.484463286391408</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AI10" s="21">
         <v>41.93</v>
       </c>
-      <c r="AJ10" s="14">
+      <c r="AJ10" s="21">
         <v>38.52</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="17">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" t="s" s="18">
         <v>53</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="19">
         <v>54</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="20">
         <v>2022</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="21">
         <v>22.07</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="21">
         <v>9.279999999999999</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="21">
         <v>12.79</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="21">
         <v>0.744761787925471</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="21">
         <v>62.41</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="21">
         <v>41.87</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="21">
         <v>80.68000000000001</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="21">
         <v>-38.81</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="21">
         <v>-0.196419376435239</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="21">
         <v>46.73</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="21">
         <v>5.33</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="21">
         <v>4.15</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="21">
         <v>1.18</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="21">
         <v>0.114035999414312</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="21">
         <v>51.9</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="21">
         <v>54.11</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="21">
         <v>17.89</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="21">
         <v>36.22</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="21">
         <v>-0.0838998572872488</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="21">
         <v>48.6</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="22">
         <v>29511</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="22">
         <v>44511</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="21">
         <v>-15000</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AC11" s="21">
         <v>-0.245647549780906</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AD11" s="21">
         <v>45.91</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="21">
         <v>26.81</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="21">
         <v>60.87</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="21">
         <v>-34.06</v>
       </c>
-      <c r="AH11" s="14">
+      <c r="AH11" s="21">
         <v>-0.356881609746386</v>
       </c>
-      <c r="AI11" s="14">
+      <c r="AI11" s="21">
         <v>44.05</v>
       </c>
-      <c r="AJ11" s="14">
+      <c r="AJ11" s="21">
         <v>49.93</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="17">
         <v>12</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" t="s" s="18">
         <v>55</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="19">
         <v>56</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="20">
         <v>2022</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="21">
         <v>22.97</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="21">
         <v>10.74</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="21">
         <v>12.23</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="21">
         <v>0.9558641646385641</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="21">
         <v>65.93000000000001</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="21">
         <v>39</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="21">
         <v>78.58</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="21">
         <v>-39.58</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="21">
         <v>-0.400958155519751</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="21">
         <v>43.32</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="21">
         <v>5</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="21">
         <v>3.78</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="21">
         <v>1.22</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="21">
         <v>0.0755397703126654</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="21">
         <v>51.26</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="21">
         <v>57.36</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="21">
         <v>19.88</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="21">
         <v>37.48</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="21">
         <v>-0.410595628111884</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y12" s="21">
         <v>43.16</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="22">
         <v>28711</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="22">
         <v>38491</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AB12" s="21">
         <v>-9780</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AC12" s="21">
         <v>0.918544089289697</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AD12" s="21">
         <v>65.31</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="21">
         <v>25.64</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="21">
         <v>59.19</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AG12" s="21">
         <v>-33.55</v>
       </c>
-      <c r="AH12" s="14">
+      <c r="AH12" s="21">
         <v>-0.205563807213918</v>
       </c>
-      <c r="AI12" s="14">
+      <c r="AI12" s="21">
         <v>46.57</v>
       </c>
-      <c r="AJ12" s="14">
+      <c r="AJ12" s="21">
         <v>52.59</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="17">
         <v>13</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" t="s" s="18">
         <v>57</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="19">
         <v>58</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="20">
         <v>2022</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="21">
         <v>23.62</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="21">
         <v>10.93</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="21">
         <v>12.69</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="21">
         <v>0.782458640909952</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="21">
         <v>63.04</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="21">
         <v>39.34</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="21">
         <v>78.91</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="21">
         <v>-39.57</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="21">
         <v>-0.398301807739433</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="21">
         <v>43.36</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="21">
         <v>4.86</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="21">
         <v>4.01</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="21">
         <v>0.850000000000001</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="21">
         <v>0.431629889502896</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="21">
         <v>57.19</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="21">
         <v>57.43</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="21">
         <v>19.72</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="21">
         <v>37.71</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="21">
         <v>-0.470230570405271</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="21">
         <v>42.16</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="22">
         <v>30043</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="22">
         <v>41076</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="21">
         <v>-11033</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="21">
         <v>0.63909349086911</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="21">
         <v>60.65</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="21">
         <v>26.67</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="21">
         <v>60.53</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="21">
         <v>-33.86</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AH13" s="21">
         <v>-0.297541295027771</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="21">
         <v>45.04</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AJ13" s="21">
         <v>51.91</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="17">
         <v>15</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="C14" t="s" s="18">
         <v>59</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="19">
         <v>60</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="20">
         <v>2022</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="21">
         <v>20.35</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="21">
         <v>8.359999999999999</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="21">
         <v>11.99</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="21">
         <v>1.04633661180132</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="21">
         <v>67.44</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="21">
         <v>43.74</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="21">
         <v>79.8</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="21">
         <v>-36.06</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="21">
         <v>0.53407626315231</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="21">
         <v>58.9</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="21">
         <v>4.29</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="21">
         <v>4.09</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="21">
         <v>0.2</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="21">
         <v>1.05719361240466</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="21">
         <v>67.62</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="21">
         <v>52.97</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="21">
         <v>18.09</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="21">
         <v>34.88</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="21">
         <v>0.263538502161173</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="21">
         <v>54.39</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="22">
         <v>37779</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="22">
         <v>45240</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="21">
         <v>-7461</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="21">
         <v>1.43573957032509</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="21">
         <v>73.93000000000001</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="21">
         <v>28.94</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="21">
         <v>58.09</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="21">
         <v>-29.15</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AH14" s="21">
         <v>1.0999231165956</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AI14" s="21">
         <v>68.33</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AJ14" s="21">
         <v>65.09999999999999</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="17">
         <v>16</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="C15" t="s" s="18">
         <v>61</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" t="s" s="19">
         <v>62</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="20">
         <v>2022</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="21">
         <v>21.91</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="21">
         <v>9.630000000000001</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="21">
         <v>12.28</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="21">
         <v>0.937015738146324</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="21">
         <v>65.62</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="21">
         <v>47.23</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="21">
         <v>81.2</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="21">
         <v>-33.97</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="21">
         <v>1.08925294923885</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="21">
         <v>68.15000000000001</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="21">
         <v>4.33</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="21">
         <v>2.7</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="21">
         <v>1.63</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="21">
         <v>-0.319046577979213</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="21">
         <v>44.68</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="21">
         <v>50.68</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="21">
         <v>19.38</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="21">
         <v>31.3</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="21">
         <v>1.19176934307561</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y15" s="21">
         <v>69.86</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="Z15" s="22">
         <v>24448</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AA15" s="22">
         <v>36867</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AB15" s="21">
         <v>-12419</v>
       </c>
-      <c r="AC15" s="14">
+      <c r="AC15" s="21">
         <v>0.329980538426225</v>
       </c>
-      <c r="AD15" s="14">
+      <c r="AD15" s="21">
         <v>55.5</v>
       </c>
-      <c r="AE15" s="14">
+      <c r="AE15" s="21">
         <v>29.11</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AF15" s="21">
         <v>57.21</v>
       </c>
-      <c r="AG15" s="14">
+      <c r="AG15" s="21">
         <v>-28.1</v>
       </c>
-      <c r="AH15" s="14">
+      <c r="AH15" s="21">
         <v>1.41145976886833</v>
       </c>
-      <c r="AI15" s="14">
+      <c r="AI15" s="21">
         <v>73.52</v>
       </c>
-      <c r="AJ15" s="14">
+      <c r="AJ15" s="21">
         <v>62.89</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="17">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="C16" t="s" s="18">
         <v>63</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" t="s" s="19">
         <v>64</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="20">
         <v>2022</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="21">
         <v>24.87</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="21">
         <v>9.58</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="21">
         <v>15.29</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="21">
         <v>-0.197659536686552</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="21">
         <v>46.71</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="21">
         <v>41.72</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="21">
         <v>80.33</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="21">
         <v>-38.61</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="21">
         <v>-0.143292420828871</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="21">
         <v>47.61</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="21">
         <v>6.42</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="21">
         <v>4.67</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="21">
         <v>1.75</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="21">
         <v>-0.434535265284153</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="21">
         <v>42.76</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="21">
         <v>53.54</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="21">
         <v>17.4</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="21">
         <v>36.14</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="21">
         <v>-0.0631572686634628</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y16" s="21">
         <v>48.95</v>
       </c>
-      <c r="Z16" s="15">
+      <c r="Z16" s="22">
         <v>29723</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AA16" s="22">
         <v>45722</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AB16" s="21">
         <v>-15999</v>
       </c>
-      <c r="AC16" s="14">
+      <c r="AC16" s="21">
         <v>-0.468449742775453</v>
       </c>
-      <c r="AD16" s="14">
+      <c r="AD16" s="21">
         <v>42.19</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AE16" s="21">
         <v>26.43</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AF16" s="21">
         <v>60.05</v>
       </c>
-      <c r="AG16" s="14">
+      <c r="AG16" s="21">
         <v>-33.62</v>
       </c>
-      <c r="AH16" s="14">
+      <c r="AH16" s="21">
         <v>-0.226332917365433</v>
       </c>
-      <c r="AI16" s="14">
+      <c r="AI16" s="21">
         <v>46.23</v>
       </c>
-      <c r="AJ16" s="14">
+      <c r="AJ16" s="21">
         <v>45.74</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="17">
         <v>18</v>
       </c>
-      <c r="C17" t="s" s="11">
+      <c r="C17" t="s" s="18">
         <v>65</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="19">
         <v>66</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="20">
         <v>2022</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="21">
         <v>25.34</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="21">
         <v>10.1</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="21">
         <v>15.24</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="21">
         <v>-0.178811110194312</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="21">
         <v>47.02</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="21">
         <v>42.06</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="21">
         <v>81.7</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="21">
         <v>-39.64</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="21">
         <v>-0.416896242201662</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="21">
         <v>43.05</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="21">
         <v>4.45</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="21">
         <v>3.46</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="21">
         <v>0.99</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="21">
         <v>0.296893087647134</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="21">
         <v>54.95</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="21">
         <v>55.12</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="21">
         <v>17.53</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="21">
         <v>37.59</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="21">
         <v>-0.439116687469592</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="21">
         <v>42.68</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="Z17" s="22">
         <v>27847</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AA17" s="22">
         <v>40853</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AB17" s="21">
         <v>-13006</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC17" s="21">
         <v>0.199064735335336</v>
       </c>
-      <c r="AD17" s="14">
+      <c r="AD17" s="21">
         <v>53.32</v>
       </c>
-      <c r="AE17" s="14">
+      <c r="AE17" s="21">
         <v>27.08</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AF17" s="21">
         <v>60.77</v>
       </c>
-      <c r="AG17" s="14">
+      <c r="AG17" s="21">
         <v>-33.69</v>
       </c>
-      <c r="AH17" s="14">
+      <c r="AH17" s="21">
         <v>-0.247102027516948</v>
       </c>
-      <c r="AI17" s="14">
+      <c r="AI17" s="21">
         <v>45.88</v>
       </c>
-      <c r="AJ17" s="14">
+      <c r="AJ17" s="21">
         <v>47.82</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10">
+      <c r="A18" s="17">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="17">
         <v>19</v>
       </c>
-      <c r="C18" t="s" s="11">
+      <c r="C18" t="s" s="18">
         <v>67</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="19">
         <v>68</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="20">
         <v>2022</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="21">
         <v>25.61</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="21">
         <v>9.77</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="21">
         <v>15.84</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="21">
         <v>-0.404992228101197</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="21">
         <v>43.25</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="21">
         <v>48.31</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="21">
         <v>84.95999999999999</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="21">
         <v>-36.65</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="21">
         <v>0.377351744113528</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="21">
         <v>56.29</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="21">
         <v>4.74</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="21">
         <v>2.99</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="21">
         <v>1.75</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="21">
         <v>-0.434535265284153</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="21">
         <v>42.76</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="21">
         <v>48.81</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="21">
         <v>14.77</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W18" s="21">
         <v>34.04</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18" s="21">
         <v>0.481335682710931</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y18" s="21">
         <v>58.02</v>
       </c>
-      <c r="Z18" s="15">
+      <c r="Z18" s="22">
         <v>25878</v>
       </c>
-      <c r="AA18" s="15">
+      <c r="AA18" s="22">
         <v>42030</v>
       </c>
-      <c r="AB18" s="14">
+      <c r="AB18" s="21">
         <v>-16152</v>
       </c>
-      <c r="AC18" s="14">
+      <c r="AC18" s="21">
         <v>-0.502572601162005</v>
       </c>
-      <c r="AD18" s="14">
+      <c r="AD18" s="21">
         <v>41.62</v>
       </c>
-      <c r="AE18" s="14">
+      <c r="AE18" s="21">
         <v>29.04</v>
       </c>
-      <c r="AF18" s="14">
+      <c r="AF18" s="21">
         <v>63.95</v>
       </c>
-      <c r="AG18" s="14">
+      <c r="AG18" s="21">
         <v>-34.91</v>
       </c>
-      <c r="AH18" s="14">
+      <c r="AH18" s="21">
         <v>-0.609077947300497</v>
       </c>
-      <c r="AI18" s="14">
+      <c r="AI18" s="21">
         <v>39.85</v>
       </c>
-      <c r="AJ18" s="14">
+      <c r="AJ18" s="21">
         <v>46.96</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="17">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="17">
         <v>20</v>
       </c>
-      <c r="C19" t="s" s="11">
+      <c r="C19" t="s" s="18">
         <v>69</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="19">
         <v>70</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="20">
         <v>2022</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="21">
         <v>24.86</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="21">
         <v>9.869999999999999</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="21">
         <v>14.99</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="21">
         <v>-0.08456897773310949</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="21">
         <v>48.59</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="21">
         <v>48.55</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="21">
         <v>83.78</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="21">
         <v>-35.23</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="21">
         <v>0.754553128918735</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="21">
         <v>62.58</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="21">
         <v>4.54</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="21">
         <v>3.09</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="21">
         <v>1.45</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="21">
         <v>-0.145813547021803</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="21">
         <v>47.57</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="21">
         <v>48.91</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="21">
         <v>15.89</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="21">
         <v>33.02</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19" s="21">
         <v>0.745803687664206</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y19" s="21">
         <v>62.43</v>
       </c>
-      <c r="Z19" s="15">
+      <c r="Z19" s="22">
         <v>27484</v>
       </c>
-      <c r="AA19" s="15">
+      <c r="AA19" s="22">
         <v>41101</v>
       </c>
-      <c r="AB19" s="14">
+      <c r="AB19" s="21">
         <v>-13617</v>
       </c>
-      <c r="AC19" s="14">
+      <c r="AC19" s="21">
         <v>0.06279632700733979</v>
       </c>
-      <c r="AD19" s="14">
+      <c r="AD19" s="21">
         <v>51.05</v>
       </c>
-      <c r="AE19" s="14">
+      <c r="AE19" s="21">
         <v>31.45</v>
       </c>
-      <c r="AF19" s="14">
+      <c r="AF19" s="21">
         <v>63.51</v>
       </c>
-      <c r="AG19" s="14">
+      <c r="AG19" s="21">
         <v>-32.06</v>
       </c>
-      <c r="AH19" s="14">
+      <c r="AH19" s="21">
         <v>0.236521537439759</v>
       </c>
-      <c r="AI19" s="14">
+      <c r="AI19" s="21">
         <v>53.94</v>
       </c>
-      <c r="AJ19" s="14">
+      <c r="AJ19" s="21">
         <v>54.36</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="17">
         <v>21</v>
       </c>
-      <c r="C20" t="s" s="11">
+      <c r="C20" t="s" s="18">
         <v>71</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="19">
         <v>72</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="20">
         <v>2022</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="21">
         <v>30.83</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="21">
         <v>12.57</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="21">
         <v>18.26</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="21">
         <v>-1.31725607032564</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="21">
         <v>28.05</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="21">
         <v>34.15</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="21">
         <v>78.70999999999999</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="21">
         <v>-44.56</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="21">
         <v>-1.72381935011829</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="21">
         <v>21.27</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="21">
         <v>4.09</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="21">
         <v>3.76</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="21">
         <v>0.33</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="21">
         <v>0.932080867824303</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="21">
         <v>65.53</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="21">
         <v>63.21</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="21">
         <v>19.9</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W20" s="21">
         <v>43.31</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20" s="21">
         <v>-1.92221177407032</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y20" s="21">
         <v>17.96</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="22">
         <v>26099</v>
       </c>
-      <c r="AA20" s="15">
+      <c r="AA20" s="22">
         <v>38317</v>
       </c>
-      <c r="AB20" s="14">
+      <c r="AB20" s="21">
         <v>-12218</v>
       </c>
-      <c r="AC20" s="14">
+      <c r="AC20" s="21">
         <v>0.37480860728699</v>
       </c>
-      <c r="AD20" s="14">
+      <c r="AD20" s="21">
         <v>56.25</v>
       </c>
-      <c r="AE20" s="14">
+      <c r="AE20" s="21">
         <v>22.04</v>
       </c>
-      <c r="AF20" s="14">
+      <c r="AF20" s="21">
         <v>58.69</v>
       </c>
-      <c r="AG20" s="14">
+      <c r="AG20" s="21">
         <v>-36.65</v>
       </c>
-      <c r="AH20" s="14">
+      <c r="AH20" s="21">
         <v>-1.12533868535244</v>
       </c>
-      <c r="AI20" s="14">
+      <c r="AI20" s="21">
         <v>31.24</v>
       </c>
-      <c r="AJ20" s="14">
+      <c r="AJ20" s="21">
         <v>36.72</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="17">
         <v>22</v>
       </c>
-      <c r="C21" t="s" s="11">
+      <c r="C21" t="s" s="18">
         <v>73</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="19">
         <v>74</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="20">
         <v>2022</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="21">
         <v>29.49</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="21">
         <v>15.31</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="21">
         <v>14.18</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="21">
         <v>0.220775531441186</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="21">
         <v>53.68</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="21">
         <v>35.67</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="21">
         <v>75.11</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="21">
         <v>-39.44</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="21">
         <v>-0.363769286595294</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="21">
         <v>43.94</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="21">
         <v>5.4</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="21">
         <v>4.85</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="21">
         <v>0.550000000000001</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="21">
         <v>0.720351607765246</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="21">
         <v>62.01</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="21">
         <v>60.36</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="21">
         <v>22.45</v>
       </c>
-      <c r="W21" s="14">
+      <c r="W21" s="21">
         <v>37.91</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X21" s="21">
         <v>-0.522087041964736</v>
       </c>
-      <c r="Y21" s="14">
+      <c r="Y21" s="21">
         <v>41.3</v>
       </c>
-      <c r="Z21" s="15">
+      <c r="Z21" s="22">
         <v>27339</v>
       </c>
-      <c r="AA21" s="15">
+      <c r="AA21" s="22">
         <v>38689</v>
       </c>
-      <c r="AB21" s="14">
+      <c r="AB21" s="21">
         <v>-11350</v>
       </c>
-      <c r="AC21" s="14">
+      <c r="AC21" s="21">
         <v>0.568394496695665</v>
       </c>
-      <c r="AD21" s="14">
+      <c r="AD21" s="21">
         <v>59.47</v>
       </c>
-      <c r="AE21" s="14">
+      <c r="AE21" s="21">
         <v>23.43</v>
       </c>
-      <c r="AF21" s="14">
+      <c r="AF21" s="21">
         <v>56.66</v>
       </c>
-      <c r="AG21" s="14">
+      <c r="AG21" s="21">
         <v>-33.23</v>
       </c>
-      <c r="AH21" s="14">
+      <c r="AH21" s="21">
         <v>-0.110619303664134</v>
       </c>
-      <c r="AI21" s="14">
+      <c r="AI21" s="21">
         <v>48.16</v>
       </c>
-      <c r="AJ21" s="14">
+      <c r="AJ21" s="21">
         <v>51.43</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="17">
         <v>23</v>
       </c>
-      <c r="C22" t="s" s="11">
+      <c r="C22" t="s" s="18">
         <v>75</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="19">
         <v>76</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="20">
         <v>2022</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="21">
         <v>27.4</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="21">
         <v>8.35</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="21">
         <v>19.05</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="21">
         <v>-1.61506120890304</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="21">
         <v>23.08</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="21">
         <v>38.52</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="21">
         <v>83.23999999999999</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="21">
         <v>-44.72</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="21">
         <v>-1.76632091460339</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="21">
         <v>20.56</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="21">
         <v>4.59</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="21">
         <v>2.86</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="21">
         <v>1.73</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="21">
         <v>-0.415287150733329</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="21">
         <v>43.08</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="21">
         <v>58.7</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="21">
         <v>16.11</v>
       </c>
-      <c r="W22" s="14">
+      <c r="W22" s="21">
         <v>42.59</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X22" s="21">
         <v>-1.73552847645624</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y22" s="21">
         <v>21.07</v>
       </c>
-      <c r="Z22" s="15">
+      <c r="Z22" s="22">
         <v>26734</v>
       </c>
-      <c r="AA22" s="15">
+      <c r="AA22" s="22">
         <v>41412</v>
       </c>
-      <c r="AB22" s="14">
+      <c r="AB22" s="21">
         <v>-14678</v>
       </c>
-      <c r="AC22" s="14">
+      <c r="AC22" s="21">
         <v>-0.173833429516398</v>
       </c>
-      <c r="AD22" s="14">
+      <c r="AD22" s="21">
         <v>47.1</v>
       </c>
-      <c r="AE22" s="14">
+      <c r="AE22" s="21">
         <v>22.86</v>
       </c>
-      <c r="AF22" s="14">
+      <c r="AF22" s="21">
         <v>60.56</v>
       </c>
-      <c r="AG22" s="14">
+      <c r="AG22" s="21">
         <v>-37.7</v>
       </c>
-      <c r="AH22" s="14">
+      <c r="AH22" s="21">
         <v>-1.43687533762517</v>
       </c>
-      <c r="AI22" s="14">
+      <c r="AI22" s="21">
         <v>26.05</v>
       </c>
-      <c r="AJ22" s="14">
+      <c r="AJ22" s="21">
         <v>30.16</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="10">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="17">
         <v>24</v>
       </c>
-      <c r="C23" t="s" s="11">
+      <c r="C23" t="s" s="18">
         <v>77</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="19">
         <v>78</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="20">
         <v>2022</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="21">
         <v>21.27</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="21">
         <v>7.3</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="21">
         <v>13.97</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="21">
         <v>0.299938922708596</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="21">
         <v>55</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="21">
         <v>45.2</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="21">
         <v>82.05</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="21">
         <v>-36.85</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="21">
         <v>0.32422478850716</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="21">
         <v>55.4</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="21">
         <v>6.18</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="21">
         <v>4.01</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="21">
         <v>2.17</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="21">
         <v>-0.838745670851442</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T23" s="21">
         <v>36.02</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="21">
         <v>50.25</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="21">
         <v>16.3</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W23" s="21">
         <v>33.95</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X23" s="21">
         <v>0.504671094912689</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="Y23" s="21">
         <v>58.41</v>
       </c>
-      <c r="Z23" s="15">
+      <c r="Z23" s="22">
         <v>37396</v>
       </c>
-      <c r="AA23" s="15">
+      <c r="AA23" s="22">
         <v>54118</v>
       </c>
-      <c r="AB23" s="14">
+      <c r="AB23" s="21">
         <v>-16722</v>
       </c>
-      <c r="AC23" s="14">
+      <c r="AC23" s="21">
         <v>-0.629696975543278</v>
       </c>
-      <c r="AD23" s="14">
+      <c r="AD23" s="21">
         <v>39.51</v>
       </c>
-      <c r="AE23" s="14">
+      <c r="AE23" s="21">
         <v>30.7</v>
       </c>
-      <c r="AF23" s="14">
+      <c r="AF23" s="21">
         <v>63.1</v>
       </c>
-      <c r="AG23" s="14">
+      <c r="AG23" s="21">
         <v>-32.4</v>
       </c>
-      <c r="AH23" s="14">
+      <c r="AH23" s="21">
         <v>0.135643002418116</v>
       </c>
-      <c r="AI23" s="14">
+      <c r="AI23" s="21">
         <v>52.26</v>
       </c>
-      <c r="AJ23" s="14">
+      <c r="AJ23" s="21">
         <v>49.43</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="17">
         <v>25</v>
       </c>
-      <c r="C24" t="s" s="11">
+      <c r="C24" t="s" s="18">
         <v>79</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" t="s" s="19">
         <v>80</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="20">
         <v>2022</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="21">
         <v>25.37</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="21">
         <v>7.75</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="21">
         <v>17.62</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="21">
         <v>-1.07599621122496</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="21">
         <v>32.07</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="21">
         <v>41.5</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="21">
         <v>82.2</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="21">
         <v>-40.7</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="21">
         <v>-0.698469106915408</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="21">
         <v>38.36</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="21">
         <v>6.24</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="21">
         <v>4.12</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="21">
         <v>2.12</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="21">
         <v>-0.790625384474384</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="21">
         <v>36.82</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="21">
         <v>54.45</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="21">
         <v>16.21</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W24" s="21">
         <v>38.24</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24" s="21">
         <v>-0.607650220037856</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="Y24" s="21">
         <v>39.87</v>
       </c>
-      <c r="Z24" s="15">
+      <c r="Z24" s="22">
         <v>31582</v>
       </c>
-      <c r="AA24" s="15">
+      <c r="AA24" s="22">
         <v>54245</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AB24" s="21">
         <v>-22663</v>
       </c>
-      <c r="AC24" s="14">
+      <c r="AC24" s="21">
         <v>-1.95468979694528</v>
       </c>
-      <c r="AD24" s="14">
+      <c r="AD24" s="21">
         <v>17.42</v>
       </c>
-      <c r="AE24" s="14">
+      <c r="AE24" s="21">
         <v>23.93</v>
       </c>
-      <c r="AF24" s="14">
+      <c r="AF24" s="21">
         <v>59.53</v>
       </c>
-      <c r="AG24" s="14">
+      <c r="AG24" s="21">
         <v>-35.6</v>
       </c>
-      <c r="AH24" s="14">
+      <c r="AH24" s="21">
         <v>-0.813802033079718</v>
       </c>
-      <c r="AI24" s="14">
+      <c r="AI24" s="21">
         <v>36.44</v>
       </c>
-      <c r="AJ24" s="14">
+      <c r="AJ24" s="21">
         <v>33.5</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="10">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="17">
         <v>26</v>
       </c>
-      <c r="C25" t="s" s="11">
+      <c r="C25" t="s" s="18">
         <v>81</v>
       </c>
-      <c r="D25" t="s" s="12">
+      <c r="D25" t="s" s="19">
         <v>82</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="20">
         <v>2022</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="21">
         <v>26.89</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="21">
         <v>10.74</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="21">
         <v>16.15</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="21">
         <v>-0.521852472353088</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="21">
         <v>41.3</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="21">
         <v>37.68</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="21">
         <v>78.83</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="21">
         <v>-41.15</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="21">
         <v>-0.818004757029733</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="21">
         <v>36.37</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="21">
         <v>5.64</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="21">
         <v>4.57</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="21">
         <v>1.07</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="21">
         <v>0.21990062944384</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T25" s="21">
         <v>53.67</v>
       </c>
-      <c r="U25" s="14">
+      <c r="U25" s="21">
         <v>58.18</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="21">
         <v>19</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W25" s="21">
         <v>39.18</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X25" s="21">
         <v>-0.851375636367346</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y25" s="21">
         <v>35.81</v>
       </c>
-      <c r="Z25" s="15">
+      <c r="Z25" s="22">
         <v>25398</v>
       </c>
-      <c r="AA25" s="15">
+      <c r="AA25" s="22">
         <v>40622</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AB25" s="21">
         <v>-15224</v>
       </c>
-      <c r="AC25" s="14">
+      <c r="AC25" s="21">
         <v>-0.295605198660564</v>
       </c>
-      <c r="AD25" s="14">
+      <c r="AD25" s="21">
         <v>45.07</v>
       </c>
-      <c r="AE25" s="14">
+      <c r="AE25" s="21">
         <v>22.32</v>
       </c>
-      <c r="AF25" s="14">
+      <c r="AF25" s="21">
         <v>56.24</v>
       </c>
-      <c r="AG25" s="14">
+      <c r="AG25" s="21">
         <v>-33.92</v>
       </c>
-      <c r="AH25" s="14">
+      <c r="AH25" s="21">
         <v>-0.315343389443356</v>
       </c>
-      <c r="AI25" s="14">
+      <c r="AI25" s="21">
         <v>44.74</v>
       </c>
-      <c r="AJ25" s="14">
+      <c r="AJ25" s="21">
         <v>42.83</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="10">
+      <c r="A26" s="17">
         <v>24</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="17">
         <v>27</v>
       </c>
-      <c r="C26" t="s" s="11">
+      <c r="C26" t="s" s="18">
         <v>83</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="19">
         <v>84</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="20">
         <v>2022</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="21">
         <v>24.8</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="21">
         <v>7.41</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="21">
         <v>17.39</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="21">
         <v>-0.989293449360652</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="21">
         <v>33.51</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="21">
         <v>49.57</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="21">
         <v>85.94</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="21">
         <v>-36.37</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="21">
         <v>0.451729481962442</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="21">
         <v>57.53</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="21">
         <v>5.87</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="21">
         <v>3.08</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="21">
         <v>2.79</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="21">
         <v>-1.43543722192697</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="21">
         <v>26.08</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="21">
         <v>46.5</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="21">
         <v>13.42</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W26" s="21">
         <v>33.08</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X26" s="21">
         <v>0.730246746196368</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y26" s="21">
         <v>62.17</v>
       </c>
-      <c r="Z26" s="15">
+      <c r="Z26" s="22">
         <v>27124</v>
       </c>
-      <c r="AA26" s="15">
+      <c r="AA26" s="22">
         <v>47807</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="21">
         <v>-20683</v>
       </c>
-      <c r="AC26" s="14">
+      <c r="AC26" s="21">
         <v>-1.51309986488402</v>
       </c>
-      <c r="AD26" s="14">
+      <c r="AD26" s="21">
         <v>24.78</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AE26" s="21">
         <v>28.11</v>
       </c>
-      <c r="AF26" s="14">
+      <c r="AF26" s="21">
         <v>62.78</v>
       </c>
-      <c r="AG26" s="14">
+      <c r="AG26" s="21">
         <v>-34.67</v>
       </c>
-      <c r="AH26" s="14">
+      <c r="AH26" s="21">
         <v>-0.537869569638161</v>
       </c>
-      <c r="AI26" s="14">
+      <c r="AI26" s="21">
         <v>41.04</v>
       </c>
-      <c r="AJ26" s="14">
+      <c r="AJ26" s="21">
         <v>40.85</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="10">
+      <c r="A27" s="17">
         <v>25</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="17">
         <v>28</v>
       </c>
-      <c r="C27" t="s" s="11">
+      <c r="C27" t="s" s="18">
         <v>85</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="19">
         <v>86</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="20">
         <v>2022</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="21">
         <v>30.13</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="21">
         <v>15.6</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="21">
         <v>14.53</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="21">
         <v>0.0888365459955031</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="21">
         <v>51.48</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="21">
         <v>33.46</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="21">
         <v>75.3</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="21">
         <v>-41.84</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="21">
         <v>-1.0012927538717</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="21">
         <v>33.31</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="21">
         <v>4.43</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="21">
         <v>4.75</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="21">
         <v>-0.32</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="21">
         <v>1.55764459072606</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="21">
         <v>75.95999999999999</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="21">
         <v>63.54</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="21">
         <v>22.96</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W27" s="21">
         <v>40.58</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X27" s="21">
         <v>-1.21437093728361</v>
       </c>
-      <c r="Y27" s="14">
+      <c r="Y27" s="21">
         <v>29.76</v>
       </c>
-      <c r="Z27" s="15">
+      <c r="Z27" s="22">
         <v>25649</v>
       </c>
-      <c r="AA27" s="15">
+      <c r="AA27" s="22">
         <v>35136</v>
       </c>
-      <c r="AB27" s="14">
+      <c r="AB27" s="21">
         <v>-9487</v>
       </c>
-      <c r="AC27" s="14">
+      <c r="AC27" s="21">
         <v>0.983890478226036</v>
       </c>
-      <c r="AD27" s="14">
+      <c r="AD27" s="21">
         <v>66.40000000000001</v>
       </c>
-      <c r="AE27" s="14">
+      <c r="AE27" s="21">
         <v>22.47</v>
       </c>
-      <c r="AF27" s="14">
+      <c r="AF27" s="21">
         <v>58.36</v>
       </c>
-      <c r="AG27" s="14">
+      <c r="AG27" s="21">
         <v>-35.89</v>
       </c>
-      <c r="AH27" s="14">
+      <c r="AH27" s="21">
         <v>-0.8998454894217091</v>
       </c>
-      <c r="AI27" s="14">
+      <c r="AI27" s="21">
         <v>35</v>
       </c>
-      <c r="AJ27" s="14">
+      <c r="AJ27" s="21">
         <v>48.65</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="10">
+      <c r="A28" s="17">
         <v>26</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="17">
         <v>29</v>
       </c>
-      <c r="C28" t="s" s="11">
+      <c r="C28" t="s" s="18">
         <v>87</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="19">
         <v>88</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="20">
         <v>2022</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="21">
         <v>27.62</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="21">
         <v>10.2</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="21">
         <v>17.42</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="21">
         <v>-1.000602505256</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="21">
         <v>33.32</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="21">
         <v>39.7</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="21">
         <v>81.62</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="21">
         <v>-41.92</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="21">
         <v>-1.02254353611425</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="21">
         <v>32.96</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="21">
         <v>4.51</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="21">
         <v>3.22</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="21">
         <v>1.29</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="21">
         <v>0.008171369384783699</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="21">
         <v>50.14</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="21">
         <v>57.11</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="21">
         <v>17.62</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="21">
         <v>39.49</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="21">
         <v>-0.931753167284519</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y28" s="21">
         <v>34.47</v>
       </c>
-      <c r="Z28" s="15">
+      <c r="Z28" s="22">
         <v>27588</v>
       </c>
-      <c r="AA28" s="15">
+      <c r="AA28" s="22">
         <v>40602</v>
       </c>
-      <c r="AB28" s="14">
+      <c r="AB28" s="21">
         <v>-13014</v>
       </c>
-      <c r="AC28" s="14">
+      <c r="AC28" s="21">
         <v>0.197280533589634</v>
       </c>
-      <c r="AD28" s="14">
+      <c r="AD28" s="21">
         <v>53.29</v>
       </c>
-      <c r="AE28" s="14">
+      <c r="AE28" s="21">
         <v>25.9</v>
       </c>
-      <c r="AF28" s="14">
+      <c r="AF28" s="21">
         <v>62.08</v>
       </c>
-      <c r="AG28" s="14">
+      <c r="AG28" s="21">
         <v>-36.18</v>
       </c>
-      <c r="AH28" s="14">
+      <c r="AH28" s="21">
         <v>-0.9858889457637</v>
       </c>
-      <c r="AI28" s="14">
+      <c r="AI28" s="21">
         <v>33.57</v>
       </c>
-      <c r="AJ28" s="14">
+      <c r="AJ28" s="21">
         <v>39.62</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="10">
+      <c r="A29" s="17">
         <v>27</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="17">
         <v>30</v>
       </c>
-      <c r="C29" t="s" s="11">
+      <c r="C29" t="s" s="18">
         <v>89</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D29" t="s" s="19">
         <v>90</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="20">
         <v>2022</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="21">
         <v>24.05</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="21">
         <v>10.98</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="21">
         <v>13.07</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="21">
         <v>0.639210599568924</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="21">
         <v>60.65</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="21">
         <v>47.55</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="21">
         <v>81.8</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="21">
         <v>-34.25</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="21">
         <v>1.01487521138993</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="21">
         <v>66.91</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="21">
         <v>4.57</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="21">
         <v>2.93</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="21">
         <v>1.64</v>
       </c>
-      <c r="S29" s="14">
+      <c r="S29" s="21">
         <v>-0.328670635254624</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T29" s="21">
         <v>44.52</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="21">
         <v>49.26</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="21">
         <v>17.78</v>
       </c>
-      <c r="W29" s="14">
+      <c r="W29" s="21">
         <v>31.48</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X29" s="21">
         <v>1.1450985186721</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y29" s="21">
         <v>69.08</v>
       </c>
-      <c r="Z29" s="15">
+      <c r="Z29" s="22">
         <v>24677</v>
       </c>
-      <c r="AA29" s="15">
+      <c r="AA29" s="22">
         <v>37346</v>
       </c>
-      <c r="AB29" s="14">
+      <c r="AB29" s="21">
         <v>-12669</v>
       </c>
-      <c r="AC29" s="14">
+      <c r="AC29" s="21">
         <v>0.274224233873036</v>
       </c>
-      <c r="AD29" s="14">
+      <c r="AD29" s="21">
         <v>54.57</v>
       </c>
-      <c r="AE29" s="14">
+      <c r="AE29" s="21">
         <v>28.27</v>
       </c>
-      <c r="AF29" s="14">
+      <c r="AF29" s="21">
         <v>57.3</v>
       </c>
-      <c r="AG29" s="14">
+      <c r="AG29" s="21">
         <v>-29.03</v>
       </c>
-      <c r="AH29" s="14">
+      <c r="AH29" s="21">
         <v>1.13552730542677</v>
       </c>
-      <c r="AI29" s="14">
+      <c r="AI29" s="21">
         <v>68.93000000000001</v>
       </c>
-      <c r="AJ29" s="14">
+      <c r="AJ29" s="21">
         <v>60.78</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="10">
+      <c r="A30" s="17">
         <v>28</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="17">
         <v>31</v>
       </c>
-      <c r="C30" t="s" s="11">
+      <c r="C30" t="s" s="18">
         <v>91</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="19">
         <v>92</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="20">
         <v>2022</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="21">
         <v>23.44</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="21">
         <v>8.859999999999999</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="21">
         <v>14.58</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="21">
         <v>0.06998811950326241</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="21">
         <v>51.17</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="21">
         <v>52.16</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="21">
         <v>86.51000000000001</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="21">
         <v>-34.35</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="21">
         <v>0.988311733586749</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="21">
         <v>66.47</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="21">
         <v>4.24</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30" s="21">
         <v>2.35</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="21">
         <v>1.89</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="21">
         <v>-0.569272067139916</v>
       </c>
-      <c r="T30" s="14">
+      <c r="T30" s="21">
         <v>40.51</v>
       </c>
-      <c r="U30" s="14">
+      <c r="U30" s="21">
         <v>45.39</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="21">
         <v>13.89</v>
       </c>
-      <c r="W30" s="14">
+      <c r="W30" s="21">
         <v>31.5</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X30" s="21">
         <v>1.13991287151615</v>
       </c>
-      <c r="Y30" s="14">
+      <c r="Y30" s="21">
         <v>69</v>
       </c>
-      <c r="Z30" s="15">
+      <c r="Z30" s="22">
         <v>28683</v>
       </c>
-      <c r="AA30" s="15">
+      <c r="AA30" s="22">
         <v>41850</v>
       </c>
-      <c r="AB30" s="14">
+      <c r="AB30" s="21">
         <v>-13167</v>
       </c>
-      <c r="AC30" s="14">
+      <c r="AC30" s="21">
         <v>0.163157675203081</v>
       </c>
-      <c r="AD30" s="14">
+      <c r="AD30" s="21">
         <v>52.72</v>
       </c>
-      <c r="AE30" s="14">
+      <c r="AE30" s="21">
         <v>33.04</v>
       </c>
-      <c r="AF30" s="14">
+      <c r="AF30" s="21">
         <v>65.70999999999999</v>
       </c>
-      <c r="AG30" s="14">
+      <c r="AG30" s="21">
         <v>-32.67</v>
       </c>
-      <c r="AH30" s="14">
+      <c r="AH30" s="21">
         <v>0.0555335775479851</v>
       </c>
-      <c r="AI30" s="14">
+      <c r="AI30" s="21">
         <v>50.93</v>
       </c>
-      <c r="AJ30" s="14">
+      <c r="AJ30" s="21">
         <v>55.13</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="10">
+      <c r="A31" s="17">
         <v>29</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="17">
         <v>32</v>
       </c>
-      <c r="C31" t="s" s="11">
+      <c r="C31" t="s" s="18">
         <v>93</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="19">
         <v>94</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="20">
         <v>2022</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="21">
         <v>22.34</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="21">
         <v>10.72</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="21">
         <v>11.62</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="21">
         <v>1.1858149678439</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="21">
         <v>69.76000000000001</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="21">
         <v>43.28</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="21">
         <v>77.31999999999999</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="21">
         <v>-34.04</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="21">
         <v>1.07065851477662</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="21">
         <v>67.84</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="21">
         <v>6.12</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q31" s="21">
         <v>5.34</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="21">
         <v>0.78</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="21">
         <v>0.498998290430779</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="21">
         <v>58.32</v>
       </c>
-      <c r="U31" s="14">
+      <c r="U31" s="21">
         <v>51.93</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="21">
         <v>19.4</v>
       </c>
-      <c r="W31" s="14">
+      <c r="W31" s="21">
         <v>32.53</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X31" s="21">
         <v>0.872852042984898</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y31" s="21">
         <v>64.55</v>
       </c>
-      <c r="Z31" s="15">
+      <c r="Z31" s="22">
         <v>32991</v>
       </c>
-      <c r="AA31" s="15">
+      <c r="AA31" s="22">
         <v>40612</v>
       </c>
-      <c r="AB31" s="14">
+      <c r="AB31" s="21">
         <v>-7621</v>
       </c>
-      <c r="AC31" s="14">
+      <c r="AC31" s="21">
         <v>1.40005553541104</v>
       </c>
-      <c r="AD31" s="14">
+      <c r="AD31" s="21">
         <v>73.33</v>
       </c>
-      <c r="AE31" s="14">
+      <c r="AE31" s="21">
         <v>28.68</v>
       </c>
-      <c r="AF31" s="14">
+      <c r="AF31" s="21">
         <v>56.81</v>
       </c>
-      <c r="AG31" s="14">
+      <c r="AG31" s="21">
         <v>-28.13</v>
       </c>
-      <c r="AH31" s="14">
+      <c r="AH31" s="21">
         <v>1.40255872166054</v>
       </c>
-      <c r="AI31" s="14">
+      <c r="AI31" s="21">
         <v>73.38</v>
       </c>
-      <c r="AJ31" s="14">
+      <c r="AJ31" s="21">
         <v>67.86</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="10">
+      <c r="A32" s="17">
         <v>30</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="17">
         <v>33</v>
       </c>
-      <c r="C32" t="s" s="11">
+      <c r="C32" t="s" s="18">
         <v>95</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="19">
         <v>96</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="20">
         <v>2022</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="21">
         <v>21.07</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="21">
         <v>5.43</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="21">
         <v>15.64</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="21">
         <v>-0.329598522132236</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="21">
         <v>44.51</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="21">
         <v>45.34</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="21">
         <v>84.45</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="21">
         <v>-39.11</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="21">
         <v>-0.276109809844788</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="21">
         <v>45.4</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="21">
         <v>4.8</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q32" s="21">
         <v>2.75</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="21">
         <v>2.05</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32" s="21">
         <v>-0.723256983546502</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="21">
         <v>37.95</v>
       </c>
-      <c r="U32" s="14">
+      <c r="U32" s="21">
         <v>51.71</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="21">
         <v>15.05</v>
       </c>
-      <c r="W32" s="14">
+      <c r="W32" s="21">
         <v>36.66</v>
       </c>
-      <c r="X32" s="14">
+      <c r="X32" s="21">
         <v>-0.197984094718073</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Y32" s="21">
         <v>46.7</v>
       </c>
-      <c r="Z32" s="15">
+      <c r="Z32" s="22">
         <v>30080</v>
       </c>
-      <c r="AA32" s="15">
+      <c r="AA32" s="22">
         <v>49006</v>
       </c>
-      <c r="AB32" s="14">
+      <c r="AB32" s="21">
         <v>-18926</v>
       </c>
-      <c r="AC32" s="14">
+      <c r="AC32" s="21">
         <v>-1.1212445564842</v>
       </c>
-      <c r="AD32" s="14">
+      <c r="AD32" s="21">
         <v>31.31</v>
       </c>
-      <c r="AE32" s="14">
+      <c r="AE32" s="21">
         <v>28.52</v>
       </c>
-      <c r="AF32" s="14">
+      <c r="AF32" s="21">
         <v>63.29</v>
       </c>
-      <c r="AG32" s="14">
+      <c r="AG32" s="21">
         <v>-34.77</v>
       </c>
-      <c r="AH32" s="14">
+      <c r="AH32" s="21">
         <v>-0.567539726997468</v>
       </c>
-      <c r="AI32" s="14">
+      <c r="AI32" s="21">
         <v>40.54</v>
       </c>
-      <c r="AJ32" s="14">
+      <c r="AJ32" s="21">
         <v>41.07</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="10">
+      <c r="A33" s="17">
         <v>31</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="17">
         <v>34</v>
       </c>
-      <c r="C33" t="s" s="11">
+      <c r="C33" t="s" s="18">
         <v>97</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="19">
         <v>98</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="20">
         <v>2022</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="21">
         <v>20.25</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="21">
         <v>7.58</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="21">
         <v>12.67</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="21">
         <v>0.789998011506848</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="21">
         <v>63.17</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="21">
         <v>41.66</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="21">
         <v>80.02</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="21">
         <v>-38.36</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="21">
         <v>-0.0768837263209117</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="21">
         <v>48.72</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="21">
         <v>6.27</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="21">
         <v>4.94</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="21">
         <v>1.33</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="21">
         <v>-0.0303248597168629</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="21">
         <v>49.49</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="21">
         <v>53.83</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="21">
         <v>17.27</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W33" s="21">
         <v>36.56</v>
       </c>
-      <c r="X33" s="14">
+      <c r="X33" s="21">
         <v>-0.172055858938342</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Y33" s="21">
         <v>47.13</v>
       </c>
-      <c r="Z33" s="15">
+      <c r="Z33" s="22">
         <v>34161</v>
       </c>
-      <c r="AA33" s="15">
+      <c r="AA33" s="22">
         <v>52741</v>
       </c>
-      <c r="AB33" s="14">
+      <c r="AB33" s="21">
         <v>-18580</v>
       </c>
-      <c r="AC33" s="14">
+      <c r="AC33" s="21">
         <v>-1.04407783098258</v>
       </c>
-      <c r="AD33" s="14">
+      <c r="AD33" s="21">
         <v>32.6</v>
       </c>
-      <c r="AE33" s="14">
+      <c r="AE33" s="21">
         <v>26.54</v>
       </c>
-      <c r="AF33" s="14">
+      <c r="AF33" s="21">
         <v>59.58</v>
       </c>
-      <c r="AG33" s="14">
+      <c r="AG33" s="21">
         <v>-33.04</v>
       </c>
-      <c r="AH33" s="14">
+      <c r="AH33" s="21">
         <v>-0.0542460046814511</v>
       </c>
-      <c r="AI33" s="14">
+      <c r="AI33" s="21">
         <v>49.1</v>
       </c>
-      <c r="AJ33" s="14">
+      <c r="AJ33" s="21">
         <v>48.37</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="10">
+      <c r="A34" s="17">
         <v>32</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="17">
         <v>35</v>
       </c>
-      <c r="C34" t="s" s="11">
+      <c r="C34" t="s" s="18">
         <v>99</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="19">
         <v>100</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="20">
         <v>2022</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="21">
         <v>29.88</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="21">
         <v>15.83</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="21">
         <v>14.05</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="21">
         <v>0.269781440321011</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="21">
         <v>54.5</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="21">
         <v>36.98</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="21">
         <v>74.87</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="21">
         <v>-37.89</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="21">
         <v>0.0479646193540508</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="21">
         <v>50.8</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="21">
         <v>5.39</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="21">
         <v>4.51</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="21">
         <v>0.88</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="21">
         <v>0.402757717676662</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="21">
         <v>56.71</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U34" s="21">
         <v>58.93</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="21">
         <v>23.28</v>
       </c>
-      <c r="W34" s="14">
+      <c r="W34" s="21">
         <v>35.65</v>
       </c>
-      <c r="X34" s="14">
+      <c r="X34" s="21">
         <v>0.0638910866572294</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y34" s="21">
         <v>51.06</v>
       </c>
-      <c r="Z34" s="15">
+      <c r="Z34" s="22">
         <v>25032</v>
       </c>
-      <c r="AA34" s="15">
+      <c r="AA34" s="22">
         <v>35586</v>
       </c>
-      <c r="AB34" s="14">
+      <c r="AB34" s="21">
         <v>-10554</v>
       </c>
-      <c r="AC34" s="14">
+      <c r="AC34" s="21">
         <v>0.745922570393022</v>
       </c>
-      <c r="AD34" s="14">
+      <c r="AD34" s="21">
         <v>62.43</v>
       </c>
-      <c r="AE34" s="14">
+      <c r="AE34" s="21">
         <v>23.97</v>
       </c>
-      <c r="AF34" s="14">
+      <c r="AF34" s="21">
         <v>54.83</v>
       </c>
-      <c r="AG34" s="14">
+      <c r="AG34" s="21">
         <v>-30.86</v>
       </c>
-      <c r="AH34" s="14">
+      <c r="AH34" s="21">
         <v>0.592563425751448</v>
       </c>
-      <c r="AI34" s="14">
+      <c r="AI34" s="21">
         <v>59.88</v>
       </c>
-      <c r="AJ34" s="14">
+      <c r="AJ34" s="21">
         <v>55.9</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="10">
+      <c r="A35" s="17">
         <v>33</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="17">
         <v>36</v>
       </c>
-      <c r="C35" t="s" s="11">
+      <c r="C35" t="s" s="18">
         <v>101</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="19">
         <v>102</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="20">
         <v>2022</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="21">
         <v>29.09</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="21">
         <v>10.81</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="21">
         <v>18.28</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="21">
         <v>-1.32479544092253</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="21">
         <v>27.92</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="21">
         <v>36.27</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="21">
         <v>77.56</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="21">
         <v>-41.29</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="21">
         <v>-0.85519362595419</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="21">
         <v>35.75</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="21">
         <v>5.88</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="21">
         <v>4.78</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="21">
         <v>1.1</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="21">
         <v>0.191028457617605</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="21">
         <v>53.18</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="21">
         <v>59.49</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="21">
         <v>19.92</v>
       </c>
-      <c r="W35" s="14">
+      <c r="W35" s="21">
         <v>39.57</v>
       </c>
-      <c r="X35" s="14">
+      <c r="X35" s="21">
         <v>-0.952495755908305</v>
       </c>
-      <c r="Y35" s="14">
+      <c r="Y35" s="21">
         <v>34.13</v>
       </c>
-      <c r="Z35" s="15">
+      <c r="Z35" s="22">
         <v>31488</v>
       </c>
-      <c r="AA35" s="15">
+      <c r="AA35" s="22">
         <v>48021</v>
       </c>
-      <c r="AB35" s="14">
+      <c r="AB35" s="21">
         <v>-16533</v>
       </c>
-      <c r="AC35" s="14">
+      <c r="AC35" s="21">
         <v>-0.587545209301066</v>
       </c>
-      <c r="AD35" s="14">
+      <c r="AD35" s="21">
         <v>40.21</v>
       </c>
-      <c r="AE35" s="14">
+      <c r="AE35" s="21">
         <v>22.44</v>
       </c>
-      <c r="AF35" s="14">
+      <c r="AF35" s="21">
         <v>56.77</v>
       </c>
-      <c r="AG35" s="14">
+      <c r="AG35" s="21">
         <v>-34.33</v>
       </c>
-      <c r="AH35" s="14">
+      <c r="AH35" s="21">
         <v>-0.436991034616515</v>
       </c>
-      <c r="AI35" s="14">
+      <c r="AI35" s="21">
         <v>42.72</v>
       </c>
-      <c r="AJ35" s="14">
+      <c r="AJ35" s="21">
         <v>38.98</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="10">
+      <c r="A36" s="17">
         <v>34</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="17">
         <v>37</v>
       </c>
-      <c r="C36" t="s" s="11">
+      <c r="C36" t="s" s="18">
         <v>103</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="19">
         <v>104</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="20">
         <v>2022</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="21">
         <v>25.21</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="21">
         <v>10.96</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="21">
         <v>14.25</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="21">
         <v>0.194387734352049</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="21">
         <v>53.24</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="21">
         <v>37.91</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="21">
         <v>79.27</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="21">
         <v>-41.36</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="21">
         <v>-0.873788060416419</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="21">
         <v>35.44</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="21">
         <v>4.82</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="21">
         <v>3.85</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="21">
         <v>0.97</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="21">
         <v>0.316141202197957</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="21">
         <v>55.27</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U36" s="21">
         <v>58.82</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="21">
         <v>19.49</v>
       </c>
-      <c r="W36" s="14">
+      <c r="W36" s="21">
         <v>39.33</v>
       </c>
-      <c r="X36" s="14">
+      <c r="X36" s="21">
         <v>-0.890267990036945</v>
       </c>
-      <c r="Y36" s="14">
+      <c r="Y36" s="21">
         <v>35.16</v>
       </c>
-      <c r="Z36" s="15">
+      <c r="Z36" s="22">
         <v>28284</v>
       </c>
-      <c r="AA36" s="15">
+      <c r="AA36" s="22">
         <v>40176</v>
       </c>
-      <c r="AB36" s="14">
+      <c r="AB36" s="21">
         <v>-11892</v>
       </c>
-      <c r="AC36" s="14">
+      <c r="AC36" s="21">
         <v>0.44751482842435</v>
       </c>
-      <c r="AD36" s="14">
+      <c r="AD36" s="21">
         <v>57.46</v>
       </c>
-      <c r="AE36" s="14">
+      <c r="AE36" s="21">
         <v>24.69</v>
       </c>
-      <c r="AF36" s="14">
+      <c r="AF36" s="21">
         <v>59.57</v>
       </c>
-      <c r="AG36" s="14">
+      <c r="AG36" s="21">
         <v>-34.88</v>
       </c>
-      <c r="AH36" s="14">
+      <c r="AH36" s="21">
         <v>-0.600176900092706</v>
       </c>
-      <c r="AI36" s="14">
+      <c r="AI36" s="21">
         <v>40</v>
       </c>
-      <c r="AJ36" s="14">
+      <c r="AJ36" s="21">
         <v>46.1</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="10">
+      <c r="A37" s="17">
         <v>35</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="17">
         <v>38</v>
       </c>
-      <c r="C37" t="s" s="11">
+      <c r="C37" t="s" s="18">
         <v>105</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="19">
         <v>106</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="20">
         <v>2022</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="21">
         <v>23.9</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="21">
         <v>9.77</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="21">
         <v>14.13</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="21">
         <v>0.239623957933426</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="21">
         <v>53.99</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="21">
         <v>56.58</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="21">
         <v>85.75</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="21">
         <v>-29.17</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="21">
         <v>2.36429988379166</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="21">
         <v>89.40000000000001</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="21">
         <v>4.01</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="21">
         <v>2.34</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="21">
         <v>1.67</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="21">
         <v>-0.357542807080859</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="21">
         <v>44.04</v>
       </c>
-      <c r="U37" s="14">
+      <c r="U37" s="21">
         <v>41.31</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="21">
         <v>14.63</v>
       </c>
-      <c r="W37" s="14">
+      <c r="W37" s="21">
         <v>26.68</v>
       </c>
-      <c r="X37" s="14">
+      <c r="X37" s="21">
         <v>2.38965383609928</v>
       </c>
-      <c r="Y37" s="14">
+      <c r="Y37" s="21">
         <v>89.83</v>
       </c>
-      <c r="Z37" s="15">
+      <c r="Z37" s="22">
         <v>30625</v>
       </c>
-      <c r="AA37" s="15">
+      <c r="AA37" s="22">
         <v>44441</v>
       </c>
-      <c r="AB37" s="14">
+      <c r="AB37" s="21">
         <v>-13816</v>
       </c>
-      <c r="AC37" s="14">
+      <c r="AC37" s="21">
         <v>0.0184143085830007</v>
       </c>
-      <c r="AD37" s="14">
+      <c r="AD37" s="21">
         <v>50.31</v>
       </c>
-      <c r="AE37" s="14">
+      <c r="AE37" s="21">
         <v>34.92</v>
       </c>
-      <c r="AF37" s="14">
+      <c r="AF37" s="21">
         <v>63.15</v>
       </c>
-      <c r="AG37" s="14">
+      <c r="AG37" s="21">
         <v>-28.23</v>
       </c>
-      <c r="AH37" s="14">
+      <c r="AH37" s="21">
         <v>1.37288856430123</v>
       </c>
-      <c r="AI37" s="14">
+      <c r="AI37" s="21">
         <v>72.88</v>
       </c>
-      <c r="AJ37" s="14">
+      <c r="AJ37" s="21">
         <v>66.73999999999999</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="10">
+      <c r="A38" s="17">
         <v>36</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="17">
         <v>39</v>
       </c>
-      <c r="C38" t="s" s="11">
+      <c r="C38" t="s" s="18">
         <v>107</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" t="s" s="19">
         <v>108</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="20">
         <v>2022</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="21">
         <v>28.63</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="21">
         <v>10.54</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="21">
         <v>18.09</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="21">
         <v>-1.25317142025202</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="21">
         <v>29.11</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="21">
         <v>40.39</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="21">
         <v>81.25</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="21">
         <v>-40.86</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="21">
         <v>-0.740970671400501</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="21">
         <v>37.65</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="21">
         <v>5.09</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38" s="21">
         <v>3.84</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="21">
         <v>1.25</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38" s="21">
         <v>0.0466675984864304</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="21">
         <v>50.78</v>
       </c>
-      <c r="U38" s="14">
+      <c r="U38" s="21">
         <v>56.06</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="21">
         <v>17.36</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W38" s="21">
         <v>38.7</v>
       </c>
-      <c r="X38" s="14">
+      <c r="X38" s="21">
         <v>-0.726920104624628</v>
       </c>
-      <c r="Y38" s="14">
+      <c r="Y38" s="21">
         <v>37.88</v>
       </c>
-      <c r="Z38" s="15">
+      <c r="Z38" s="22">
         <v>26266</v>
       </c>
-      <c r="AA38" s="15">
+      <c r="AA38" s="22">
         <v>41594</v>
       </c>
-      <c r="AB38" s="14">
+      <c r="AB38" s="21">
         <v>-15328</v>
       </c>
-      <c r="AC38" s="14">
+      <c r="AC38" s="21">
         <v>-0.318799821354691</v>
       </c>
-      <c r="AD38" s="14">
+      <c r="AD38" s="21">
         <v>44.69</v>
       </c>
-      <c r="AE38" s="14">
+      <c r="AE38" s="21">
         <v>24.76</v>
       </c>
-      <c r="AF38" s="14">
+      <c r="AF38" s="21">
         <v>60.41</v>
       </c>
-      <c r="AG38" s="14">
+      <c r="AG38" s="21">
         <v>-35.65</v>
       </c>
-      <c r="AH38" s="14">
+      <c r="AH38" s="21">
         <v>-0.828637111759371</v>
       </c>
-      <c r="AI38" s="14">
+      <c r="AI38" s="21">
         <v>36.19</v>
       </c>
-      <c r="AJ38" s="14">
+      <c r="AJ38" s="21">
         <v>39.38</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="10">
+      <c r="A39" s="17">
         <v>37</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="17">
         <v>40</v>
       </c>
-      <c r="C39" t="s" s="11">
+      <c r="C39" t="s" s="18">
         <v>109</v>
       </c>
-      <c r="D39" t="s" s="12">
+      <c r="D39" t="s" s="19">
         <v>110</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="20">
         <v>2022</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="21">
         <v>25.62</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="21">
         <v>12.85</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="21">
         <v>12.77</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="21">
         <v>0.752301158522367</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="21">
         <v>62.54</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="21">
         <v>42.19</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="21">
         <v>78.72</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="21">
         <v>-36.53</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="21">
         <v>0.409227917477347</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="21">
         <v>56.82</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="21">
         <v>4.8</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="21">
         <v>3.6</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="21">
         <v>1.2</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39" s="21">
         <v>0.0947878848634888</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="21">
         <v>51.58</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U39" s="21">
         <v>54.42</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="21">
         <v>20.37</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W39" s="21">
         <v>34.05</v>
       </c>
-      <c r="X39" s="14">
+      <c r="X39" s="21">
         <v>0.478742859132958</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Y39" s="21">
         <v>57.98</v>
       </c>
-      <c r="Z39" s="15">
+      <c r="Z39" s="22">
         <v>29149</v>
       </c>
-      <c r="AA39" s="15">
+      <c r="AA39" s="22">
         <v>38085</v>
       </c>
-      <c r="AB39" s="14">
+      <c r="AB39" s="21">
         <v>-8936</v>
       </c>
-      <c r="AC39" s="14">
+      <c r="AC39" s="21">
         <v>1.10677737346127</v>
       </c>
-      <c r="AD39" s="14">
+      <c r="AD39" s="21">
         <v>68.45</v>
       </c>
-      <c r="AE39" s="14">
+      <c r="AE39" s="21">
         <v>29.13</v>
       </c>
-      <c r="AF39" s="14">
+      <c r="AF39" s="21">
         <v>60.05</v>
       </c>
-      <c r="AG39" s="14">
+      <c r="AG39" s="21">
         <v>-30.92</v>
       </c>
-      <c r="AH39" s="14">
+      <c r="AH39" s="21">
         <v>0.574761331335863</v>
       </c>
-      <c r="AI39" s="14">
+      <c r="AI39" s="21">
         <v>59.58</v>
       </c>
-      <c r="AJ39" s="14">
+      <c r="AJ39" s="21">
         <v>59.49</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="10">
+      <c r="A40" s="17">
         <v>38</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="17">
         <v>41</v>
       </c>
-      <c r="C40" t="s" s="11">
+      <c r="C40" t="s" s="18">
         <v>111</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="19">
         <v>112</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="20">
         <v>2022</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="21">
         <v>27.23</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="21">
         <v>10.22</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="21">
         <v>17.01</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="21">
         <v>-0.846045408019625</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="21">
         <v>35.9</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="21">
         <v>43.36</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="21">
         <v>79.88</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="21">
         <v>-36.52</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="21">
         <v>0.411884265257665</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="21">
         <v>56.86</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="21">
         <v>5.98</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q40" s="21">
         <v>4.11</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40" s="21">
         <v>1.87</v>
       </c>
-      <c r="S40" s="14">
+      <c r="S40" s="21">
         <v>-0.550023952589093</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="21">
         <v>40.83</v>
       </c>
-      <c r="U40" s="14">
+      <c r="U40" s="21">
         <v>52.66</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="21">
         <v>18.2</v>
       </c>
-      <c r="W40" s="14">
+      <c r="W40" s="21">
         <v>34.46</v>
       </c>
-      <c r="X40" s="14">
+      <c r="X40" s="21">
         <v>0.372437092436052</v>
       </c>
-      <c r="Y40" s="14">
+      <c r="Y40" s="21">
         <v>56.21</v>
       </c>
-      <c r="Z40" s="15">
+      <c r="Z40" s="22">
         <v>27654</v>
       </c>
-      <c r="AA40" s="15">
+      <c r="AA40" s="22">
         <v>42841</v>
       </c>
-      <c r="AB40" s="14">
+      <c r="AB40" s="21">
         <v>-15187</v>
       </c>
-      <c r="AC40" s="14">
+      <c r="AC40" s="21">
         <v>-0.287353265586692</v>
       </c>
-      <c r="AD40" s="14">
+      <c r="AD40" s="21">
         <v>45.21</v>
       </c>
-      <c r="AE40" s="14">
+      <c r="AE40" s="21">
         <v>25.35</v>
       </c>
-      <c r="AF40" s="14">
+      <c r="AF40" s="21">
         <v>56.44</v>
       </c>
-      <c r="AG40" s="14">
+      <c r="AG40" s="21">
         <v>-31.09</v>
       </c>
-      <c r="AH40" s="14">
+      <c r="AH40" s="21">
         <v>0.524322063825041</v>
       </c>
-      <c r="AI40" s="14">
+      <c r="AI40" s="21">
         <v>58.74</v>
       </c>
-      <c r="AJ40" s="14">
+      <c r="AJ40" s="21">
         <v>48.96</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="10">
+      <c r="A41" s="17">
         <v>39</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="17">
         <v>42</v>
       </c>
-      <c r="C41" t="s" s="11">
+      <c r="C41" t="s" s="18">
         <v>113</v>
       </c>
-      <c r="D41" t="s" s="12">
+      <c r="D41" t="s" s="19">
         <v>114</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="20">
         <v>2022</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="21">
         <v>26.73</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="21">
         <v>9.16</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="21">
         <v>17.57</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="21">
         <v>-1.05714778473272</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="21">
         <v>32.38</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="21">
         <v>40.1</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="21">
         <v>80.95</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="21">
         <v>-40.85</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="21">
         <v>-0.738314323620183</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="21">
         <v>37.69</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="21">
         <v>5.77</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="21">
         <v>4.08</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41" s="21">
         <v>1.69</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S41" s="21">
         <v>-0.376790921631683</v>
       </c>
-      <c r="T41" s="14">
+      <c r="T41" s="21">
         <v>43.72</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U41" s="21">
         <v>55.99</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="21">
         <v>17.56</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="21">
         <v>38.43</v>
       </c>
-      <c r="X41" s="14">
+      <c r="X41" s="21">
         <v>-0.656913868019348</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="Y41" s="21">
         <v>39.05</v>
       </c>
-      <c r="Z41" s="15">
+      <c r="Z41" s="22">
         <v>27743</v>
       </c>
-      <c r="AA41" s="15">
+      <c r="AA41" s="22">
         <v>44436</v>
       </c>
-      <c r="AB41" s="14">
+      <c r="AB41" s="21">
         <v>-16693</v>
       </c>
-      <c r="AC41" s="14">
+      <c r="AC41" s="21">
         <v>-0.6232292442151079</v>
       </c>
-      <c r="AD41" s="14">
+      <c r="AD41" s="21">
         <v>39.61</v>
       </c>
-      <c r="AE41" s="14">
+      <c r="AE41" s="21">
         <v>24.92</v>
       </c>
-      <c r="AF41" s="14">
+      <c r="AF41" s="21">
         <v>60.68</v>
       </c>
-      <c r="AG41" s="14">
+      <c r="AG41" s="21">
         <v>-35.76</v>
       </c>
-      <c r="AH41" s="14">
+      <c r="AH41" s="21">
         <v>-0.861274284854609</v>
       </c>
-      <c r="AI41" s="14">
+      <c r="AI41" s="21">
         <v>35.65</v>
       </c>
-      <c r="AJ41" s="14">
+      <c r="AJ41" s="21">
         <v>38.02</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="10">
+      <c r="A42" s="17">
         <v>40</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="17">
         <v>44</v>
       </c>
-      <c r="C42" t="s" s="11">
+      <c r="C42" t="s" s="18">
         <v>115</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="19">
         <v>116</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="20">
         <v>2022</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="21">
         <v>25.57</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="21">
         <v>8.619999999999999</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="21">
         <v>16.95</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="21">
         <v>-0.823427296228935</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="21">
         <v>36.28</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="21">
         <v>41.2</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="21">
         <v>81.26000000000001</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="21">
         <v>-40.06</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="21">
         <v>-0.528462848975033</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="21">
         <v>41.19</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="21">
         <v>5.89</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q42" s="21">
         <v>4.49</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42" s="21">
         <v>1.4</v>
       </c>
-      <c r="S42" s="14">
+      <c r="S42" s="21">
         <v>-0.0976932606447444</v>
       </c>
-      <c r="T42" s="14">
+      <c r="T42" s="21">
         <v>48.37</v>
       </c>
-      <c r="U42" s="14">
+      <c r="U42" s="21">
         <v>54.29</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V42" s="21">
         <v>17.02</v>
       </c>
-      <c r="W42" s="14">
+      <c r="W42" s="21">
         <v>37.27</v>
       </c>
-      <c r="X42" s="14">
+      <c r="X42" s="21">
         <v>-0.356146332974446</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="Y42" s="21">
         <v>44.06</v>
       </c>
-      <c r="Z42" s="15">
+      <c r="Z42" s="22">
         <v>29656</v>
       </c>
-      <c r="AA42" s="15">
+      <c r="AA42" s="22">
         <v>46182</v>
       </c>
-      <c r="AB42" s="14">
+      <c r="AB42" s="21">
         <v>-16526</v>
       </c>
-      <c r="AC42" s="14">
+      <c r="AC42" s="21">
         <v>-0.585984032773577</v>
       </c>
-      <c r="AD42" s="14">
+      <c r="AD42" s="21">
         <v>40.23</v>
       </c>
-      <c r="AE42" s="14">
+      <c r="AE42" s="21">
         <v>25.35</v>
       </c>
-      <c r="AF42" s="14">
+      <c r="AF42" s="21">
         <v>59.44</v>
       </c>
-      <c r="AG42" s="14">
+      <c r="AG42" s="21">
         <v>-34.09</v>
       </c>
-      <c r="AH42" s="14">
+      <c r="AH42" s="21">
         <v>-0.365782656954179</v>
       </c>
-      <c r="AI42" s="14">
+      <c r="AI42" s="21">
         <v>43.9</v>
       </c>
-      <c r="AJ42" s="14">
+      <c r="AJ42" s="21">
         <v>42.34</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="10">
+      <c r="A43" s="17">
         <v>41</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="17">
         <v>45</v>
       </c>
-      <c r="C43" t="s" s="11">
+      <c r="C43" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D43" t="s" s="19">
         <v>118</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="20">
         <v>2022</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="21">
         <v>25.22</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="21">
         <v>11.92</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="21">
         <v>13.3</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="21">
         <v>0.552507837704618</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="21">
         <v>59.21</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="21">
         <v>36.78</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="21">
         <v>78.44</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="21">
         <v>-41.66</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="21">
         <v>-0.9534784938259691</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="21">
         <v>34.11</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="21">
         <v>4.71</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43" s="21">
         <v>3.92</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="21">
         <v>0.79</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S43" s="21">
         <v>0.489374233155367</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="21">
         <v>58.16</v>
       </c>
-      <c r="U43" s="14">
+      <c r="U43" s="21">
         <v>59.94</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="21">
         <v>20.28</v>
       </c>
-      <c r="W43" s="14">
+      <c r="W43" s="21">
         <v>39.66</v>
       </c>
-      <c r="X43" s="14">
+      <c r="X43" s="21">
         <v>-0.975831168110063</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Y43" s="21">
         <v>33.74</v>
       </c>
-      <c r="Z43" s="15">
+      <c r="Z43" s="22">
         <v>28655</v>
       </c>
-      <c r="AA43" s="15">
+      <c r="AA43" s="22">
         <v>38590</v>
       </c>
-      <c r="AB43" s="14">
+      <c r="AB43" s="21">
         <v>-9935</v>
       </c>
-      <c r="AC43" s="14">
+      <c r="AC43" s="21">
         <v>0.88397518046672</v>
       </c>
-      <c r="AD43" s="14">
+      <c r="AD43" s="21">
         <v>64.73</v>
       </c>
-      <c r="AE43" s="14">
+      <c r="AE43" s="21">
         <v>25.12</v>
       </c>
-      <c r="AF43" s="14">
+      <c r="AF43" s="21">
         <v>59.68</v>
       </c>
-      <c r="AG43" s="14">
+      <c r="AG43" s="21">
         <v>-34.56</v>
       </c>
-      <c r="AH43" s="14">
+      <c r="AH43" s="21">
         <v>-0.505232396542923</v>
       </c>
-      <c r="AI43" s="14">
+      <c r="AI43" s="21">
         <v>41.58</v>
       </c>
-      <c r="AJ43" s="14">
+      <c r="AJ43" s="21">
         <v>48.59</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="10">
+      <c r="A44" s="17">
         <v>42</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="17">
         <v>46</v>
       </c>
-      <c r="C44" t="s" s="11">
+      <c r="C44" t="s" s="18">
         <v>119</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="19">
         <v>120</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="20">
         <v>2022</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="21">
         <v>25.08</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="21">
         <v>10.38</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="21">
         <v>14.7</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="21">
         <v>0.0247518959218856</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="21">
         <v>50.41</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="21">
         <v>53.02</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="21">
         <v>85.61</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="21">
         <v>-32.59</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="21">
         <v>1.45582894292278</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="21">
         <v>74.26000000000001</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="21">
         <v>3.85</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q44" s="21">
         <v>2.55</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44" s="21">
         <v>1.3</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44" s="21">
         <v>-0.0014526878906279</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="21">
         <v>49.98</v>
       </c>
-      <c r="U44" s="14">
+      <c r="U44" s="21">
         <v>44.67</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="21">
         <v>14.29</v>
       </c>
-      <c r="W44" s="14">
+      <c r="W44" s="21">
         <v>30.38</v>
       </c>
-      <c r="X44" s="14">
+      <c r="X44" s="21">
         <v>1.43030911224916</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="Y44" s="21">
         <v>73.84</v>
       </c>
-      <c r="Z44" s="15">
+      <c r="Z44" s="22">
         <v>25674</v>
       </c>
-      <c r="AA44" s="15">
+      <c r="AA44" s="22">
         <v>40712</v>
       </c>
-      <c r="AB44" s="14">
+      <c r="AB44" s="21">
         <v>-15038</v>
       </c>
-      <c r="AC44" s="14">
+      <c r="AC44" s="21">
         <v>-0.254122508072991</v>
       </c>
-      <c r="AD44" s="14">
+      <c r="AD44" s="21">
         <v>45.76</v>
       </c>
-      <c r="AE44" s="14">
+      <c r="AE44" s="21">
         <v>32.87</v>
       </c>
-      <c r="AF44" s="14">
+      <c r="AF44" s="21">
         <v>65.40000000000001</v>
       </c>
-      <c r="AG44" s="14">
+      <c r="AG44" s="21">
         <v>-32.53</v>
       </c>
-      <c r="AH44" s="14">
+      <c r="AH44" s="21">
         <v>0.0970717978510154</v>
       </c>
-      <c r="AI44" s="14">
+      <c r="AI44" s="21">
         <v>51.62</v>
       </c>
-      <c r="AJ44" s="14">
+      <c r="AJ44" s="21">
         <v>57.64</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="10">
+      <c r="A45" s="17">
         <v>43</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="17">
         <v>47</v>
       </c>
-      <c r="C45" t="s" s="11">
+      <c r="C45" t="s" s="18">
         <v>121</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="19">
         <v>122</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="20">
         <v>2022</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="21">
         <v>26.93</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="21">
         <v>11.06</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="21">
         <v>15.87</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="21">
         <v>-0.416301283996541</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="21">
         <v>43.06</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="21">
         <v>37.16</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="21">
         <v>79.48999999999999</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="21">
         <v>-42.33</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="21">
         <v>-1.1314537951073</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="21">
         <v>31.14</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="21">
         <v>4.72</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q45" s="21">
         <v>3.74</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="21">
         <v>0.98</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S45" s="21">
         <v>0.306517144922545</v>
       </c>
-      <c r="T45" s="14">
+      <c r="T45" s="21">
         <v>55.11</v>
       </c>
-      <c r="U45" s="14">
+      <c r="U45" s="21">
         <v>59.33</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V45" s="21">
         <v>19.12</v>
       </c>
-      <c r="W45" s="14">
+      <c r="W45" s="21">
         <v>40.21</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X45" s="21">
         <v>-1.1184364648986</v>
       </c>
-      <c r="Y45" s="14">
+      <c r="Y45" s="21">
         <v>31.36</v>
       </c>
-      <c r="Z45" s="15">
+      <c r="Z45" s="22">
         <v>28975</v>
       </c>
-      <c r="AA45" s="15">
+      <c r="AA45" s="22">
         <v>39499</v>
       </c>
-      <c r="AB45" s="14">
+      <c r="AB45" s="21">
         <v>-10524</v>
       </c>
-      <c r="AC45" s="14">
+      <c r="AC45" s="21">
         <v>0.752613326939404</v>
       </c>
-      <c r="AD45" s="14">
+      <c r="AD45" s="21">
         <v>62.54</v>
       </c>
-      <c r="AE45" s="14">
+      <c r="AE45" s="21">
         <v>25.05</v>
       </c>
-      <c r="AF45" s="14">
+      <c r="AF45" s="21">
         <v>60.61</v>
       </c>
-      <c r="AG45" s="14">
+      <c r="AG45" s="21">
         <v>-35.56</v>
       </c>
-      <c r="AH45" s="14">
+      <c r="AH45" s="21">
         <v>-0.801933970135996</v>
       </c>
-      <c r="AI45" s="14">
+      <c r="AI45" s="21">
         <v>36.63</v>
       </c>
-      <c r="AJ45" s="14">
+      <c r="AJ45" s="21">
         <v>43.31</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="10">
+      <c r="A46" s="17">
         <v>44</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="17">
         <v>48</v>
       </c>
-      <c r="C46" t="s" s="11">
+      <c r="C46" t="s" s="18">
         <v>123</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="19">
         <v>124</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="20">
         <v>2022</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="21">
         <v>22.12</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="21">
         <v>11.22</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="21">
         <v>10.9</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="21">
         <v>1.45723230933216</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="21">
         <v>74.29000000000001</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="21">
         <v>45.5</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="21">
         <v>78.62</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="21">
         <v>-33.12</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="21">
         <v>1.31504251056591</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="21">
         <v>71.92</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="21">
         <v>5.11</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="21">
         <v>3.99</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="21">
         <v>1.12</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="21">
         <v>0.171780343066782</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="21">
         <v>52.86</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="21">
         <v>51.06</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="21">
         <v>20.02</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W46" s="21">
         <v>31.04</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X46" s="21">
         <v>1.25918275610292</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y46" s="21">
         <v>70.98999999999999</v>
       </c>
-      <c r="Z46" s="15">
+      <c r="Z46" s="22">
         <v>30480</v>
       </c>
-      <c r="AA46" s="15">
+      <c r="AA46" s="22">
         <v>41579</v>
       </c>
-      <c r="AB46" s="14">
+      <c r="AB46" s="21">
         <v>-11099</v>
       </c>
-      <c r="AC46" s="14">
+      <c r="AC46" s="21">
         <v>0.624373826467068</v>
       </c>
-      <c r="AD46" s="14">
+      <c r="AD46" s="21">
         <v>60.41</v>
       </c>
-      <c r="AE46" s="14">
+      <c r="AE46" s="21">
         <v>31.21</v>
       </c>
-      <c r="AF46" s="14">
+      <c r="AF46" s="21">
         <v>60.4</v>
       </c>
-      <c r="AG46" s="14">
+      <c r="AG46" s="21">
         <v>-29.19</v>
       </c>
-      <c r="AH46" s="14">
+      <c r="AH46" s="21">
         <v>1.08805505365188</v>
       </c>
-      <c r="AI46" s="14">
+      <c r="AI46" s="21">
         <v>68.13</v>
       </c>
-      <c r="AJ46" s="14">
+      <c r="AJ46" s="21">
         <v>66.43000000000001</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="10">
+      <c r="A47" s="17">
         <v>45</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="17">
         <v>49</v>
       </c>
-      <c r="C47" t="s" s="11">
+      <c r="C47" t="s" s="18">
         <v>125</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D47" t="s" s="19">
         <v>126</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="20">
         <v>2022</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="21">
         <v>18.06</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="21">
         <v>7.82</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="21">
         <v>10.24</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="21">
         <v>1.70603153902973</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="21">
         <v>78.43000000000001</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="21">
         <v>54.03</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="21">
         <v>83.19</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="21">
         <v>-29.16</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="21">
         <v>2.36695623157198</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="21">
         <v>89.45</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="21">
         <v>3.92</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q47" s="21">
         <v>2.55</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="21">
         <v>1.37</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47" s="21">
         <v>-0.0688210888185096</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="21">
         <v>48.85</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="21">
         <v>44.59</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="21">
         <v>17.44</v>
       </c>
-      <c r="W47" s="14">
+      <c r="W47" s="21">
         <v>27.15</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X47" s="21">
         <v>2.26779112793453</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y47" s="21">
         <v>87.8</v>
       </c>
-      <c r="Z47" s="15">
+      <c r="Z47" s="22">
         <v>28818</v>
       </c>
-      <c r="AA47" s="15">
+      <c r="AA47" s="22">
         <v>40441</v>
       </c>
-      <c r="AB47" s="14">
+      <c r="AB47" s="21">
         <v>-11623</v>
       </c>
-      <c r="AC47" s="14">
+      <c r="AC47" s="21">
         <v>0.507508612123582</v>
       </c>
-      <c r="AD47" s="14">
+      <c r="AD47" s="21">
         <v>58.46</v>
       </c>
-      <c r="AE47" s="14">
+      <c r="AE47" s="21">
         <v>32.95</v>
       </c>
-      <c r="AF47" s="14">
+      <c r="AF47" s="21">
         <v>58.18</v>
       </c>
-      <c r="AG47" s="14">
+      <c r="AG47" s="21">
         <v>-25.23</v>
       </c>
-      <c r="AH47" s="14">
+      <c r="AH47" s="21">
         <v>2.26299328508045</v>
       </c>
-      <c r="AI47" s="14">
+      <c r="AI47" s="21">
         <v>87.72</v>
       </c>
-      <c r="AJ47" s="14">
+      <c r="AJ47" s="21">
         <v>75.12</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="10">
+      <c r="A48" s="17">
         <v>46</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="17">
         <v>50</v>
       </c>
-      <c r="C48" t="s" s="11">
+      <c r="C48" t="s" s="18">
         <v>127</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="19">
         <v>128</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="20">
         <v>2022</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="21">
         <v>26.74</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="21">
         <v>8.880000000000001</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="21">
         <v>17.86</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="21">
         <v>-1.16646865838771</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="21">
         <v>30.56</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="21">
         <v>42.87</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="21">
         <v>83.44</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="21">
         <v>-40.57</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="21">
         <v>-0.663936585771269</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="21">
         <v>38.93</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="21">
         <v>4.83</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q48" s="21">
         <v>2.91</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48" s="21">
         <v>1.92</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48" s="21">
         <v>-0.598144238966151</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="21">
         <v>40.03</v>
       </c>
-      <c r="U48" s="14">
+      <c r="U48" s="21">
         <v>54.93</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V48" s="21">
         <v>16.45</v>
       </c>
-      <c r="W48" s="14">
+      <c r="W48" s="21">
         <v>38.48</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X48" s="21">
         <v>-0.669877985909214</v>
       </c>
-      <c r="Y48" s="14">
+      <c r="Y48" s="21">
         <v>38.84</v>
       </c>
-      <c r="Z48" s="15">
+      <c r="Z48" s="22">
         <v>23809</v>
       </c>
-      <c r="AA48" s="15">
+      <c r="AA48" s="22">
         <v>42229</v>
       </c>
-      <c r="AB48" s="14">
+      <c r="AB48" s="21">
         <v>-18420</v>
       </c>
-      <c r="AC48" s="14">
+      <c r="AC48" s="21">
         <v>-1.00839379606854</v>
       </c>
-      <c r="AD48" s="14">
+      <c r="AD48" s="21">
         <v>33.19</v>
       </c>
-      <c r="AE48" s="14">
+      <c r="AE48" s="21">
         <v>23.34</v>
       </c>
-      <c r="AF48" s="14">
+      <c r="AF48" s="21">
         <v>59.43</v>
       </c>
-      <c r="AG48" s="14">
+      <c r="AG48" s="21">
         <v>-36.09</v>
       </c>
-      <c r="AH48" s="14">
+      <c r="AH48" s="21">
         <v>-0.9591858041403249</v>
       </c>
-      <c r="AI48" s="14">
+      <c r="AI48" s="21">
         <v>34.01</v>
       </c>
-      <c r="AJ48" s="14">
+      <c r="AJ48" s="21">
         <v>35.93</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="10">
+      <c r="A49" s="17">
         <v>47</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="17">
         <v>51</v>
       </c>
-      <c r="C49" t="s" s="11">
+      <c r="C49" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="19">
         <v>130</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="20">
         <v>2022</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="21">
         <v>21.15</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="21">
         <v>8.390000000000001</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="21">
         <v>12.76</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="21">
         <v>0.756070843820815</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="21">
         <v>62.6</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="21">
         <v>43.98</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="21">
         <v>81.31999999999999</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="21">
         <v>-37.34</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="21">
         <v>0.19406374727156</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="21">
         <v>53.23</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P49" s="21">
         <v>4.54</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q49" s="21">
         <v>3.48</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R49" s="21">
         <v>1.06</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S49" s="21">
         <v>0.229524686719252</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T49" s="21">
         <v>53.83</v>
       </c>
-      <c r="U49" s="14">
+      <c r="U49" s="21">
         <v>53.31</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="21">
         <v>17.79</v>
       </c>
-      <c r="W49" s="14">
+      <c r="W49" s="21">
         <v>35.52</v>
       </c>
-      <c r="X49" s="14">
+      <c r="X49" s="21">
         <v>0.0975977931708812</v>
       </c>
-      <c r="Y49" s="14">
+      <c r="Y49" s="21">
         <v>51.63</v>
       </c>
-      <c r="Z49" s="15">
+      <c r="Z49" s="22">
         <v>33221</v>
       </c>
-      <c r="AA49" s="15">
+      <c r="AA49" s="22">
         <v>47509</v>
       </c>
-      <c r="AB49" s="14">
+      <c r="AB49" s="21">
         <v>-14288</v>
       </c>
-      <c r="AC49" s="14">
+      <c r="AC49" s="21">
         <v>-0.0868535944134218</v>
       </c>
-      <c r="AD49" s="14">
+      <c r="AD49" s="21">
         <v>48.55</v>
       </c>
-      <c r="AE49" s="14">
+      <c r="AE49" s="21">
         <v>29.92</v>
       </c>
-      <c r="AF49" s="14">
+      <c r="AF49" s="21">
         <v>62.3</v>
       </c>
-      <c r="AG49" s="14">
+      <c r="AG49" s="21">
         <v>-32.38</v>
       </c>
-      <c r="AH49" s="14">
+      <c r="AH49" s="21">
         <v>0.141577033889976</v>
       </c>
-      <c r="AI49" s="14">
+      <c r="AI49" s="21">
         <v>52.36</v>
       </c>
-      <c r="AJ49" s="14">
+      <c r="AJ49" s="21">
         <v>53.7</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="10">
+      <c r="A50" s="17">
         <v>48</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="17">
         <v>53</v>
       </c>
-      <c r="C50" t="s" s="11">
+      <c r="C50" t="s" s="18">
         <v>131</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="19">
         <v>132</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="20">
         <v>2022</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="21">
         <v>22.77</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="21">
         <v>8.17</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="21">
         <v>14.6</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="21">
         <v>0.0624487489063664</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="21">
         <v>51.04</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="21">
         <v>43.5</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="21">
         <v>80.02</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="21">
         <v>-36.52</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="21">
         <v>0.411884265257665</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="21">
         <v>56.86</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P50" s="21">
         <v>5.51</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q50" s="21">
         <v>3.76</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R50" s="21">
         <v>1.75</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50" s="21">
         <v>-0.434535265284153</v>
       </c>
-      <c r="T50" s="14">
+      <c r="T50" s="21">
         <v>42.76</v>
       </c>
-      <c r="U50" s="14">
+      <c r="U50" s="21">
         <v>52.57</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V50" s="21">
         <v>18.34</v>
       </c>
-      <c r="W50" s="14">
+      <c r="W50" s="21">
         <v>34.23</v>
       </c>
-      <c r="X50" s="14">
+      <c r="X50" s="21">
         <v>0.432072034729439</v>
       </c>
-      <c r="Y50" s="14">
+      <c r="Y50" s="21">
         <v>57.2</v>
       </c>
-      <c r="Z50" s="15">
+      <c r="Z50" s="22">
         <v>35130</v>
       </c>
-      <c r="AA50" s="15">
+      <c r="AA50" s="22">
         <v>50633</v>
       </c>
-      <c r="AB50" s="14">
+      <c r="AB50" s="21">
         <v>-15503</v>
       </c>
-      <c r="AC50" s="14">
+      <c r="AC50" s="21">
         <v>-0.357829234541924</v>
       </c>
-      <c r="AD50" s="14">
+      <c r="AD50" s="21">
         <v>44.04</v>
       </c>
-      <c r="AE50" s="14">
+      <c r="AE50" s="21">
         <v>27.45</v>
       </c>
-      <c r="AF50" s="14">
+      <c r="AF50" s="21">
         <v>57.79</v>
       </c>
-      <c r="AG50" s="14">
+      <c r="AG50" s="21">
         <v>-30.34</v>
       </c>
-      <c r="AH50" s="14">
+      <c r="AH50" s="21">
         <v>0.746848244019845</v>
       </c>
-      <c r="AI50" s="14">
+      <c r="AI50" s="21">
         <v>62.45</v>
       </c>
-      <c r="AJ50" s="14">
+      <c r="AJ50" s="21">
         <v>52.39</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="10">
+      <c r="A51" s="17">
         <v>49</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="17">
         <v>54</v>
       </c>
-      <c r="C51" t="s" s="11">
+      <c r="C51" t="s" s="18">
         <v>133</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D51" t="s" s="19">
         <v>134</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="20">
         <v>2022</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="21">
         <v>30.3</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="21">
         <v>14.41</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="21">
         <v>15.89</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="21">
         <v>-0.423840654593438</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="21">
         <v>42.94</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="21">
         <v>31.07</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="21">
         <v>73.87</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="21">
         <v>-42.8</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="21">
         <v>-1.25630214078226</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51" s="21">
         <v>29.06</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="21">
         <v>4.36</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q51" s="21">
         <v>4.35</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R51" s="21">
         <v>0.0100000000000007</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S51" s="21">
         <v>1.24005070063748</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="21">
         <v>70.67</v>
       </c>
-      <c r="U51" s="14">
+      <c r="U51" s="21">
         <v>65.83</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="21">
         <v>24.55</v>
       </c>
-      <c r="W51" s="14">
+      <c r="W51" s="21">
         <v>41.28</v>
       </c>
-      <c r="X51" s="14">
+      <c r="X51" s="21">
         <v>-1.39586858774174</v>
       </c>
-      <c r="Y51" s="14">
+      <c r="Y51" s="21">
         <v>26.74</v>
       </c>
-      <c r="Z51" s="15">
+      <c r="Z51" s="22">
         <v>26955</v>
       </c>
-      <c r="AA51" s="15">
+      <c r="AA51" s="22">
         <v>36962</v>
       </c>
-      <c r="AB51" s="14">
+      <c r="AB51" s="21">
         <v>-10007</v>
       </c>
-      <c r="AC51" s="14">
+      <c r="AC51" s="21">
         <v>0.867917364755401</v>
       </c>
-      <c r="AD51" s="14">
+      <c r="AD51" s="21">
         <v>64.47</v>
       </c>
-      <c r="AE51" s="14">
+      <c r="AE51" s="21">
         <v>20.92</v>
       </c>
-      <c r="AF51" s="14">
+      <c r="AF51" s="21">
         <v>56.03</v>
       </c>
-      <c r="AG51" s="14">
+      <c r="AG51" s="21">
         <v>-35.11</v>
       </c>
-      <c r="AH51" s="14">
+      <c r="AH51" s="21">
         <v>-0.668418262019112</v>
       </c>
-      <c r="AI51" s="14">
+      <c r="AI51" s="21">
         <v>38.86</v>
       </c>
-      <c r="AJ51" s="14">
+      <c r="AJ51" s="21">
         <v>45.46</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="10">
+      <c r="A52" s="17">
         <v>50</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="17">
         <v>55</v>
       </c>
-      <c r="C52" t="s" s="11">
+      <c r="C52" t="s" s="18">
         <v>135</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="19">
         <v>136</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="20">
         <v>2022</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="21">
         <v>23.83</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="21">
         <v>9.01</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="21">
         <v>14.82</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="21">
         <v>-0.0204843276594919</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="21">
         <v>49.66</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="21">
         <v>45.92</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="21">
         <v>84.59999999999999</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="21">
         <v>-38.68</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N52" s="21">
         <v>-0.161886855291099</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O52" s="21">
         <v>47.3</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="21">
         <v>4.07</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q52" s="21">
         <v>2.64</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R52" s="21">
         <v>1.43</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S52" s="21">
         <v>-0.126565432470979</v>
       </c>
-      <c r="T52" s="14">
+      <c r="T52" s="21">
         <v>47.89</v>
       </c>
-      <c r="U52" s="14">
+      <c r="U52" s="21">
         <v>51.68</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V52" s="21">
         <v>15.31</v>
       </c>
-      <c r="W52" s="14">
+      <c r="W52" s="21">
         <v>36.37</v>
       </c>
-      <c r="X52" s="14">
+      <c r="X52" s="21">
         <v>-0.122792210956848</v>
       </c>
-      <c r="Y52" s="14">
+      <c r="Y52" s="21">
         <v>47.95</v>
       </c>
-      <c r="Z52" s="15">
+      <c r="Z52" s="22">
         <v>26910</v>
       </c>
-      <c r="AA52" s="15">
+      <c r="AA52" s="22">
         <v>43750</v>
       </c>
-      <c r="AB52" s="14">
+      <c r="AB52" s="21">
         <v>-16840</v>
       </c>
-      <c r="AC52" s="14">
+      <c r="AC52" s="21">
         <v>-0.656013951292384</v>
       </c>
-      <c r="AD52" s="14">
+      <c r="AD52" s="21">
         <v>39.07</v>
       </c>
-      <c r="AE52" s="14">
+      <c r="AE52" s="21">
         <v>27.69</v>
       </c>
-      <c r="AF52" s="14">
+      <c r="AF52" s="21">
         <v>63.13</v>
       </c>
-      <c r="AG52" s="14">
+      <c r="AG52" s="21">
         <v>-35.44</v>
       </c>
-      <c r="AH52" s="14">
+      <c r="AH52" s="21">
         <v>-0.766329781304825</v>
       </c>
-      <c r="AI52" s="14">
+      <c r="AI52" s="21">
         <v>37.23</v>
       </c>
-      <c r="AJ52" s="14">
+      <c r="AJ52" s="21">
         <v>44.85</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="10">
+      <c r="A53" s="17">
         <v>51</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="17">
         <v>56</v>
       </c>
-      <c r="C53" t="s" s="11">
+      <c r="C53" t="s" s="18">
         <v>137</v>
       </c>
-      <c r="D53" t="s" s="12">
+      <c r="D53" t="s" s="19">
         <v>138</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="20">
         <v>2022</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="21">
         <v>20.89</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="21">
         <v>9.609999999999999</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="21">
         <v>11.28</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="21">
         <v>1.31398426799113</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="21">
         <v>71.90000000000001</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="21">
         <v>49.9</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="21">
         <v>83.54000000000001</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="21">
         <v>-33.64</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N53" s="21">
         <v>1.17691242598935</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O53" s="21">
         <v>69.62</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="21">
         <v>4.35</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q53" s="21">
         <v>2.97</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R53" s="21">
         <v>1.38</v>
       </c>
-      <c r="S53" s="14">
+      <c r="S53" s="21">
         <v>-0.0784451460939211</v>
       </c>
-      <c r="T53" s="14">
+      <c r="T53" s="21">
         <v>48.69</v>
       </c>
-      <c r="U53" s="14">
+      <c r="U53" s="21">
         <v>47.32</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V53" s="21">
         <v>16.17</v>
       </c>
-      <c r="W53" s="14">
+      <c r="W53" s="21">
         <v>31.15</v>
       </c>
-      <c r="X53" s="14">
+      <c r="X53" s="21">
         <v>1.23066169674521</v>
       </c>
-      <c r="Y53" s="14">
+      <c r="Y53" s="21">
         <v>70.51000000000001</v>
       </c>
-      <c r="Z53" s="15">
+      <c r="Z53" s="22">
         <v>28190</v>
       </c>
-      <c r="AA53" s="15">
+      <c r="AA53" s="22">
         <v>41072</v>
       </c>
-      <c r="AB53" s="14">
+      <c r="AB53" s="21">
         <v>-12882</v>
       </c>
-      <c r="AC53" s="14">
+      <c r="AC53" s="21">
         <v>0.226719862393718</v>
       </c>
-      <c r="AD53" s="14">
+      <c r="AD53" s="21">
         <v>53.78</v>
       </c>
-      <c r="AE53" s="14">
+      <c r="AE53" s="21">
         <v>31.43</v>
       </c>
-      <c r="AF53" s="14">
+      <c r="AF53" s="21">
         <v>61.23</v>
       </c>
-      <c r="AG53" s="14">
+      <c r="AG53" s="21">
         <v>-29.8</v>
       </c>
-      <c r="AH53" s="14">
+      <c r="AH53" s="21">
         <v>0.907067093760104</v>
       </c>
-      <c r="AI53" s="14">
+      <c r="AI53" s="21">
         <v>65.12</v>
       </c>
-      <c r="AJ53" s="14">
+      <c r="AJ53" s="21">
         <v>63.27</v>
       </c>
     </row>
